--- a/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.234154275538287</v>
+        <v>1.234154275538202</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01208617003164392</v>
+        <v>0.01208617003184997</v>
       </c>
       <c r="E2">
-        <v>0.02510634319287419</v>
+        <v>0.02510634319289728</v>
       </c>
       <c r="F2">
-        <v>2.100119479098069</v>
+        <v>2.100119479098041</v>
       </c>
       <c r="G2">
-        <v>1.657209507950355</v>
+        <v>1.657209507950341</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.752884797756764</v>
+        <v>3.752884797756707</v>
       </c>
       <c r="K2">
-        <v>2.089310360206355</v>
+        <v>2.089310360206369</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.066448700086539</v>
+        <v>1.066448700086596</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01011907911998122</v>
+        <v>0.01011907911997056</v>
       </c>
       <c r="E3">
-        <v>0.02611652152544508</v>
+        <v>0.02611652152542732</v>
       </c>
       <c r="F3">
         <v>1.802278693813406</v>
       </c>
       <c r="G3">
-        <v>1.421440575051918</v>
+        <v>1.421440575051932</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.243149877755954</v>
+        <v>3.243149877755911</v>
       </c>
       <c r="K3">
-        <v>1.798123508197804</v>
+        <v>1.79812350819779</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9651751128725721</v>
+        <v>0.9651751128726005</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009210444456552835</v>
+        <v>0.009210444456854816</v>
       </c>
       <c r="E4">
-        <v>0.02681570641172648</v>
+        <v>0.02681570641173181</v>
       </c>
       <c r="F4">
-        <v>1.628777101750046</v>
+        <v>1.628777101750032</v>
       </c>
       <c r="G4">
-        <v>1.284622317765084</v>
+        <v>1.284622317765098</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.934480134244424</v>
+        <v>2.934480134244396</v>
       </c>
       <c r="K4">
-        <v>1.622600455694396</v>
+        <v>1.622600455694354</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9242642820547076</v>
+        <v>0.9242642820546223</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008905314377248175</v>
+        <v>0.00890531437725528</v>
       </c>
       <c r="E5">
-        <v>0.02712041219393502</v>
+        <v>0.02712041219393768</v>
       </c>
       <c r="F5">
         <v>1.560106836321168</v>
       </c>
       <c r="G5">
-        <v>1.230592044495694</v>
+        <v>1.23059204449568</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.809562152732454</v>
+        <v>2.809562152732425</v>
       </c>
       <c r="K5">
         <v>1.551742842909391</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9174909039477086</v>
+        <v>0.917490903947737</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008858312962413351</v>
+        <v>0.008858312962527037</v>
       </c>
       <c r="E6">
-        <v>0.02717220150361666</v>
+        <v>0.02717220150361754</v>
       </c>
       <c r="F6">
-        <v>1.548818248885695</v>
+        <v>1.548818248885709</v>
       </c>
       <c r="G6">
         <v>1.221717133786768</v>
@@ -591,7 +591,7 @@
         <v>2.78886619430078</v>
       </c>
       <c r="K6">
-        <v>1.540013335212777</v>
+        <v>1.540013335212763</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.964622006079594</v>
+        <v>0.9646220060798498</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00920607793917938</v>
+        <v>0.009206077939065693</v>
       </c>
       <c r="E7">
-        <v>0.02681973575906582</v>
+        <v>0.02681973575906227</v>
       </c>
       <c r="F7">
         <v>1.627843158506934</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.93279220065763</v>
+        <v>2.932792200657588</v>
       </c>
       <c r="K7">
-        <v>1.621642321753825</v>
+        <v>1.621642321753839</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.175933388116789</v>
+        <v>1.175933388116874</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01133930646222581</v>
+        <v>0.01133930646222936</v>
       </c>
       <c r="E8">
-        <v>0.02543822706942578</v>
+        <v>0.02543822706943644</v>
       </c>
       <c r="F8">
         <v>1.995270174607242</v>
       </c>
       <c r="G8">
-        <v>1.574091622479372</v>
+        <v>1.574091622479401</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3.576094558405003</v>
+        <v>3.576094558404975</v>
       </c>
       <c r="K8">
         <v>1.988133261186647</v>
@@ -687,13 +687,13 @@
         <v>0.0184384329794014</v>
       </c>
       <c r="E9">
-        <v>0.0233588762812218</v>
+        <v>0.02335887628115962</v>
       </c>
       <c r="F9">
         <v>2.807333236886308</v>
       </c>
       <c r="G9">
-        <v>2.220715482395946</v>
+        <v>2.22071548239596</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.883304889725707</v>
+        <v>4.883304889725764</v>
       </c>
       <c r="K9">
         <v>2.740823201740795</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02636609871919404</v>
+        <v>0.02636609871930418</v>
       </c>
       <c r="E10">
-        <v>0.02221988920104145</v>
+        <v>0.02221988920107165</v>
       </c>
       <c r="F10">
-        <v>3.488776181612394</v>
+        <v>3.488776181612366</v>
       </c>
       <c r="G10">
         <v>2.767587106890332</v>
@@ -743,7 +743,7 @@
         <v>5.891022897117722</v>
       </c>
       <c r="K10">
-        <v>3.328228499594246</v>
+        <v>3.328228499594218</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.097385028860543</v>
+        <v>2.097385028860458</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03084032523715763</v>
+        <v>0.03084032523702973</v>
       </c>
       <c r="E11">
-        <v>0.0217867564436709</v>
+        <v>0.02178675644369577</v>
       </c>
       <c r="F11">
         <v>3.825631062992358</v>
       </c>
       <c r="G11">
-        <v>3.039102201838219</v>
+        <v>3.039102201838261</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.365351613438605</v>
+        <v>6.365351613438634</v>
       </c>
       <c r="K11">
         <v>3.606884529866193</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.157680392237296</v>
+        <v>2.157680392237467</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03269029030122184</v>
+        <v>0.0326902903009838</v>
       </c>
       <c r="E12">
-        <v>0.02163493413477724</v>
+        <v>0.02163493413477902</v>
       </c>
       <c r="F12">
         <v>3.957964641997336</v>
       </c>
       <c r="G12">
-        <v>3.145961754917934</v>
+        <v>3.145961754917948</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.547858151037417</v>
+        <v>6.547858151037474</v>
       </c>
       <c r="K12">
-        <v>3.714475577056191</v>
+        <v>3.71447557705622</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.144650592504036</v>
+        <v>2.144650592504092</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0322843645426083</v>
+        <v>0.03228436454273265</v>
       </c>
       <c r="E13">
-        <v>0.0216670909557628</v>
+        <v>0.02166709095579478</v>
       </c>
       <c r="F13">
-        <v>3.929235017156032</v>
+        <v>3.929235017156003</v>
       </c>
       <c r="G13">
-        <v>3.122753498259485</v>
+        <v>3.122753498259499</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.508412544340587</v>
+        <v>6.508412544340644</v>
       </c>
       <c r="K13">
-        <v>3.691203999781862</v>
+        <v>3.691203999781891</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03098919743684903</v>
+        <v>0.03098919743696982</v>
       </c>
       <c r="E14">
-        <v>0.02177402203929368</v>
+        <v>0.02177402203929901</v>
       </c>
       <c r="F14">
         <v>3.836416543433586</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.380304702752198</v>
+        <v>6.380304702752255</v>
       </c>
       <c r="K14">
-        <v>3.615691831062918</v>
+        <v>3.615691831062975</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.076526629106326</v>
+        <v>2.076526629106098</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03021719570809722</v>
+        <v>0.03021719570820736</v>
       </c>
       <c r="E15">
-        <v>0.0218411061056436</v>
+        <v>0.02184110610566492</v>
       </c>
       <c r="F15">
-        <v>3.780215019588013</v>
+        <v>3.78021501958807</v>
       </c>
       <c r="G15">
-        <v>3.00245346580374</v>
+        <v>3.002453465803782</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>6.302231326180504</v>
       </c>
       <c r="K15">
-        <v>3.569722334317447</v>
+        <v>3.569722334317504</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.930462732758542</v>
+        <v>1.930462732758741</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02609362670635562</v>
+        <v>0.02609362670622062</v>
       </c>
       <c r="E16">
-        <v>0.02224990567989771</v>
+        <v>0.02224990567985152</v>
       </c>
       <c r="F16">
-        <v>3.467375593033353</v>
+        <v>3.46737559303341</v>
       </c>
       <c r="G16">
-        <v>2.750362539818482</v>
+        <v>2.750362539818497</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>5.860392866598033</v>
       </c>
       <c r="K16">
-        <v>3.310282044492396</v>
+        <v>3.310282044492382</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02380587732143624</v>
+        <v>0.02380587732143269</v>
       </c>
       <c r="E17">
         <v>0.02252246994444107</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.593801088968831</v>
+        <v>5.59380108896886</v>
       </c>
       <c r="K17">
-        <v>3.15432743889977</v>
+        <v>3.154327438899756</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02256947954100141</v>
+        <v>0.02256947954102273</v>
       </c>
       <c r="E18">
-        <v>0.0226872477698663</v>
+        <v>0.02268724776987519</v>
       </c>
       <c r="F18">
-        <v>3.179294683827919</v>
+        <v>3.179294683827862</v>
       </c>
       <c r="G18">
-        <v>2.518802320809797</v>
+        <v>2.518802320809783</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>5.441919505820721</v>
       </c>
       <c r="K18">
-        <v>3.065673158390851</v>
+        <v>3.065673158390837</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.775140750215087</v>
+        <v>1.775140750215257</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02216368366417854</v>
+        <v>0.02216368366395471</v>
       </c>
       <c r="E19">
-        <v>0.0227444131085548</v>
+        <v>0.02274441310854236</v>
       </c>
       <c r="F19">
         <v>3.14460640275081</v>
       </c>
       <c r="G19">
-        <v>2.490959366840968</v>
+        <v>2.490959366840954</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.390728744936069</v>
+        <v>5.390728744936041</v>
       </c>
       <c r="K19">
-        <v>3.035824694832144</v>
+        <v>3.035824694832172</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.851635856043004</v>
+        <v>1.851635856042776</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02404098956848699</v>
+        <v>0.02404098956846923</v>
       </c>
       <c r="E20">
-        <v>0.02249262630829385</v>
+        <v>0.02249262630827786</v>
       </c>
       <c r="F20">
         <v>3.302297810719779</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.622025735488336</v>
+        <v>5.622025735488364</v>
       </c>
       <c r="K20">
         <v>3.170817974105063</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.11473119197376</v>
+        <v>2.114731191973874</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03136510831043182</v>
+        <v>0.03136510831019379</v>
       </c>
       <c r="E21">
-        <v>0.02174228353637808</v>
+        <v>0.02174228353637453</v>
       </c>
       <c r="F21">
-        <v>3.863541657019596</v>
+        <v>3.863541657019624</v>
       </c>
       <c r="G21">
-        <v>3.069704134734479</v>
+        <v>3.069704134734494</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.417849199764447</v>
+        <v>6.417849199764419</v>
       </c>
       <c r="K21">
         <v>3.637811518950741</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.292156106742027</v>
+        <v>2.292156106742141</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03707992941080818</v>
+        <v>0.03707992941071936</v>
       </c>
       <c r="E22">
-        <v>0.02132287572987046</v>
+        <v>0.02132287572990244</v>
       </c>
       <c r="F22">
         <v>4.258769650824775</v>
       </c>
       <c r="G22">
-        <v>3.389249592310222</v>
+        <v>3.389249592310208</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.955192014424256</v>
+        <v>6.955192014424227</v>
       </c>
       <c r="K22">
         <v>3.955360914308528</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.196892470215573</v>
+        <v>2.196892470215801</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03393245376303966</v>
+        <v>0.03393245376292597</v>
       </c>
       <c r="E23">
-        <v>0.02154026592787339</v>
+        <v>0.02154026592787162</v>
       </c>
       <c r="F23">
-        <v>4.044866056766381</v>
+        <v>4.044866056766409</v>
       </c>
       <c r="G23">
-        <v>3.216192207723509</v>
+        <v>3.216192207723523</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.666588332242895</v>
+        <v>6.666588332242952</v>
       </c>
       <c r="K23">
-        <v>3.784581261578552</v>
+        <v>3.78458126157858</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.847414381053909</v>
+        <v>1.847414381053881</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02393445190910981</v>
+        <v>0.02393445190923416</v>
       </c>
       <c r="E24">
         <v>0.02250609345780674</v>
       </c>
       <c r="F24">
-        <v>3.293531197523436</v>
+        <v>3.293531197523464</v>
       </c>
       <c r="G24">
-        <v>2.610556673002733</v>
+        <v>2.610556673002719</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.609261100407082</v>
+        <v>5.609261100407025</v>
       </c>
       <c r="K24">
         <v>3.163359500039618</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.488265423922059</v>
+        <v>1.488265423922371</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01612073295135019</v>
+        <v>0.01612073295154914</v>
       </c>
       <c r="E25">
-        <v>0.02385345228890756</v>
+        <v>0.02385345228888625</v>
       </c>
       <c r="F25">
-        <v>2.575177510663195</v>
+        <v>2.575177510663167</v>
       </c>
       <c r="G25">
-        <v>2.035229238786627</v>
+        <v>2.035229238786641</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.52298315548839</v>
+        <v>4.522983155488333</v>
       </c>
       <c r="K25">
-        <v>2.532300102210343</v>
+        <v>2.532300102210357</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.234154275538202</v>
+        <v>1.234154275538287</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01208617003184997</v>
+        <v>0.01208617003164392</v>
       </c>
       <c r="E2">
-        <v>0.02510634319289728</v>
+        <v>0.02510634319287419</v>
       </c>
       <c r="F2">
-        <v>2.100119479098041</v>
+        <v>2.100119479098069</v>
       </c>
       <c r="G2">
-        <v>1.657209507950341</v>
+        <v>1.657209507950355</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.752884797756707</v>
+        <v>3.752884797756764</v>
       </c>
       <c r="K2">
-        <v>2.089310360206369</v>
+        <v>2.089310360206355</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.066448700086596</v>
+        <v>1.066448700086539</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01011907911997056</v>
+        <v>0.01011907911998122</v>
       </c>
       <c r="E3">
-        <v>0.02611652152542732</v>
+        <v>0.02611652152544508</v>
       </c>
       <c r="F3">
         <v>1.802278693813406</v>
       </c>
       <c r="G3">
-        <v>1.421440575051932</v>
+        <v>1.421440575051918</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.243149877755911</v>
+        <v>3.243149877755954</v>
       </c>
       <c r="K3">
-        <v>1.79812350819779</v>
+        <v>1.798123508197804</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9651751128726005</v>
+        <v>0.9651751128725721</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009210444456854816</v>
+        <v>0.009210444456552835</v>
       </c>
       <c r="E4">
-        <v>0.02681570641173181</v>
+        <v>0.02681570641172648</v>
       </c>
       <c r="F4">
-        <v>1.628777101750032</v>
+        <v>1.628777101750046</v>
       </c>
       <c r="G4">
-        <v>1.284622317765098</v>
+        <v>1.284622317765084</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.934480134244396</v>
+        <v>2.934480134244424</v>
       </c>
       <c r="K4">
-        <v>1.622600455694354</v>
+        <v>1.622600455694396</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9242642820546223</v>
+        <v>0.9242642820547076</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00890531437725528</v>
+        <v>0.008905314377248175</v>
       </c>
       <c r="E5">
-        <v>0.02712041219393768</v>
+        <v>0.02712041219393502</v>
       </c>
       <c r="F5">
         <v>1.560106836321168</v>
       </c>
       <c r="G5">
-        <v>1.23059204449568</v>
+        <v>1.230592044495694</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.809562152732425</v>
+        <v>2.809562152732454</v>
       </c>
       <c r="K5">
         <v>1.551742842909391</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.917490903947737</v>
+        <v>0.9174909039477086</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008858312962527037</v>
+        <v>0.008858312962413351</v>
       </c>
       <c r="E6">
-        <v>0.02717220150361754</v>
+        <v>0.02717220150361666</v>
       </c>
       <c r="F6">
-        <v>1.548818248885709</v>
+        <v>1.548818248885695</v>
       </c>
       <c r="G6">
         <v>1.221717133786768</v>
@@ -591,7 +591,7 @@
         <v>2.78886619430078</v>
       </c>
       <c r="K6">
-        <v>1.540013335212763</v>
+        <v>1.540013335212777</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9646220060798498</v>
+        <v>0.964622006079594</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009206077939065693</v>
+        <v>0.00920607793917938</v>
       </c>
       <c r="E7">
-        <v>0.02681973575906227</v>
+        <v>0.02681973575906582</v>
       </c>
       <c r="F7">
         <v>1.627843158506934</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.932792200657588</v>
+        <v>2.93279220065763</v>
       </c>
       <c r="K7">
-        <v>1.621642321753839</v>
+        <v>1.621642321753825</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.175933388116874</v>
+        <v>1.175933388116789</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01133930646222936</v>
+        <v>0.01133930646222581</v>
       </c>
       <c r="E8">
-        <v>0.02543822706943644</v>
+        <v>0.02543822706942578</v>
       </c>
       <c r="F8">
         <v>1.995270174607242</v>
       </c>
       <c r="G8">
-        <v>1.574091622479401</v>
+        <v>1.574091622479372</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3.576094558404975</v>
+        <v>3.576094558405003</v>
       </c>
       <c r="K8">
         <v>1.988133261186647</v>
@@ -687,13 +687,13 @@
         <v>0.0184384329794014</v>
       </c>
       <c r="E9">
-        <v>0.02335887628115962</v>
+        <v>0.0233588762812218</v>
       </c>
       <c r="F9">
         <v>2.807333236886308</v>
       </c>
       <c r="G9">
-        <v>2.22071548239596</v>
+        <v>2.220715482395946</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.883304889725764</v>
+        <v>4.883304889725707</v>
       </c>
       <c r="K9">
         <v>2.740823201740795</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02636609871930418</v>
+        <v>0.02636609871919404</v>
       </c>
       <c r="E10">
-        <v>0.02221988920107165</v>
+        <v>0.02221988920104145</v>
       </c>
       <c r="F10">
-        <v>3.488776181612366</v>
+        <v>3.488776181612394</v>
       </c>
       <c r="G10">
         <v>2.767587106890332</v>
@@ -743,7 +743,7 @@
         <v>5.891022897117722</v>
       </c>
       <c r="K10">
-        <v>3.328228499594218</v>
+        <v>3.328228499594246</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.097385028860458</v>
+        <v>2.097385028860543</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03084032523702973</v>
+        <v>0.03084032523715763</v>
       </c>
       <c r="E11">
-        <v>0.02178675644369577</v>
+        <v>0.0217867564436709</v>
       </c>
       <c r="F11">
         <v>3.825631062992358</v>
       </c>
       <c r="G11">
-        <v>3.039102201838261</v>
+        <v>3.039102201838219</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.365351613438634</v>
+        <v>6.365351613438605</v>
       </c>
       <c r="K11">
         <v>3.606884529866193</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.157680392237467</v>
+        <v>2.157680392237296</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0326902903009838</v>
+        <v>0.03269029030122184</v>
       </c>
       <c r="E12">
-        <v>0.02163493413477902</v>
+        <v>0.02163493413477724</v>
       </c>
       <c r="F12">
         <v>3.957964641997336</v>
       </c>
       <c r="G12">
-        <v>3.145961754917948</v>
+        <v>3.145961754917934</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.547858151037474</v>
+        <v>6.547858151037417</v>
       </c>
       <c r="K12">
-        <v>3.71447557705622</v>
+        <v>3.714475577056191</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.144650592504092</v>
+        <v>2.144650592504036</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03228436454273265</v>
+        <v>0.0322843645426083</v>
       </c>
       <c r="E13">
-        <v>0.02166709095579478</v>
+        <v>0.0216670909557628</v>
       </c>
       <c r="F13">
-        <v>3.929235017156003</v>
+        <v>3.929235017156032</v>
       </c>
       <c r="G13">
-        <v>3.122753498259499</v>
+        <v>3.122753498259485</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.508412544340644</v>
+        <v>6.508412544340587</v>
       </c>
       <c r="K13">
-        <v>3.691203999781891</v>
+        <v>3.691203999781862</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03098919743696982</v>
+        <v>0.03098919743684903</v>
       </c>
       <c r="E14">
-        <v>0.02177402203929901</v>
+        <v>0.02177402203929368</v>
       </c>
       <c r="F14">
         <v>3.836416543433586</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.380304702752255</v>
+        <v>6.380304702752198</v>
       </c>
       <c r="K14">
-        <v>3.615691831062975</v>
+        <v>3.615691831062918</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.076526629106098</v>
+        <v>2.076526629106326</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03021719570820736</v>
+        <v>0.03021719570809722</v>
       </c>
       <c r="E15">
-        <v>0.02184110610566492</v>
+        <v>0.0218411061056436</v>
       </c>
       <c r="F15">
-        <v>3.78021501958807</v>
+        <v>3.780215019588013</v>
       </c>
       <c r="G15">
-        <v>3.002453465803782</v>
+        <v>3.00245346580374</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>6.302231326180504</v>
       </c>
       <c r="K15">
-        <v>3.569722334317504</v>
+        <v>3.569722334317447</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.930462732758741</v>
+        <v>1.930462732758542</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02609362670622062</v>
+        <v>0.02609362670635562</v>
       </c>
       <c r="E16">
-        <v>0.02224990567985152</v>
+        <v>0.02224990567989771</v>
       </c>
       <c r="F16">
-        <v>3.46737559303341</v>
+        <v>3.467375593033353</v>
       </c>
       <c r="G16">
-        <v>2.750362539818497</v>
+        <v>2.750362539818482</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>5.860392866598033</v>
       </c>
       <c r="K16">
-        <v>3.310282044492382</v>
+        <v>3.310282044492396</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02380587732143269</v>
+        <v>0.02380587732143624</v>
       </c>
       <c r="E17">
         <v>0.02252246994444107</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.59380108896886</v>
+        <v>5.593801088968831</v>
       </c>
       <c r="K17">
-        <v>3.154327438899756</v>
+        <v>3.15432743889977</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02256947954102273</v>
+        <v>0.02256947954100141</v>
       </c>
       <c r="E18">
-        <v>0.02268724776987519</v>
+        <v>0.0226872477698663</v>
       </c>
       <c r="F18">
-        <v>3.179294683827862</v>
+        <v>3.179294683827919</v>
       </c>
       <c r="G18">
-        <v>2.518802320809783</v>
+        <v>2.518802320809797</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>5.441919505820721</v>
       </c>
       <c r="K18">
-        <v>3.065673158390837</v>
+        <v>3.065673158390851</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.775140750215257</v>
+        <v>1.775140750215087</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02216368366395471</v>
+        <v>0.02216368366417854</v>
       </c>
       <c r="E19">
-        <v>0.02274441310854236</v>
+        <v>0.0227444131085548</v>
       </c>
       <c r="F19">
         <v>3.14460640275081</v>
       </c>
       <c r="G19">
-        <v>2.490959366840954</v>
+        <v>2.490959366840968</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.390728744936041</v>
+        <v>5.390728744936069</v>
       </c>
       <c r="K19">
-        <v>3.035824694832172</v>
+        <v>3.035824694832144</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.851635856042776</v>
+        <v>1.851635856043004</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02404098956846923</v>
+        <v>0.02404098956848699</v>
       </c>
       <c r="E20">
-        <v>0.02249262630827786</v>
+        <v>0.02249262630829385</v>
       </c>
       <c r="F20">
         <v>3.302297810719779</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.622025735488364</v>
+        <v>5.622025735488336</v>
       </c>
       <c r="K20">
         <v>3.170817974105063</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.114731191973874</v>
+        <v>2.11473119197376</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03136510831019379</v>
+        <v>0.03136510831043182</v>
       </c>
       <c r="E21">
-        <v>0.02174228353637453</v>
+        <v>0.02174228353637808</v>
       </c>
       <c r="F21">
-        <v>3.863541657019624</v>
+        <v>3.863541657019596</v>
       </c>
       <c r="G21">
-        <v>3.069704134734494</v>
+        <v>3.069704134734479</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.417849199764419</v>
+        <v>6.417849199764447</v>
       </c>
       <c r="K21">
         <v>3.637811518950741</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.292156106742141</v>
+        <v>2.292156106742027</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03707992941071936</v>
+        <v>0.03707992941080818</v>
       </c>
       <c r="E22">
-        <v>0.02132287572990244</v>
+        <v>0.02132287572987046</v>
       </c>
       <c r="F22">
         <v>4.258769650824775</v>
       </c>
       <c r="G22">
-        <v>3.389249592310208</v>
+        <v>3.389249592310222</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.955192014424227</v>
+        <v>6.955192014424256</v>
       </c>
       <c r="K22">
         <v>3.955360914308528</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.196892470215801</v>
+        <v>2.196892470215573</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03393245376292597</v>
+        <v>0.03393245376303966</v>
       </c>
       <c r="E23">
-        <v>0.02154026592787162</v>
+        <v>0.02154026592787339</v>
       </c>
       <c r="F23">
-        <v>4.044866056766409</v>
+        <v>4.044866056766381</v>
       </c>
       <c r="G23">
-        <v>3.216192207723523</v>
+        <v>3.216192207723509</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.666588332242952</v>
+        <v>6.666588332242895</v>
       </c>
       <c r="K23">
-        <v>3.78458126157858</v>
+        <v>3.784581261578552</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.847414381053881</v>
+        <v>1.847414381053909</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02393445190923416</v>
+        <v>0.02393445190910981</v>
       </c>
       <c r="E24">
         <v>0.02250609345780674</v>
       </c>
       <c r="F24">
-        <v>3.293531197523464</v>
+        <v>3.293531197523436</v>
       </c>
       <c r="G24">
-        <v>2.610556673002719</v>
+        <v>2.610556673002733</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.609261100407025</v>
+        <v>5.609261100407082</v>
       </c>
       <c r="K24">
         <v>3.163359500039618</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.488265423922371</v>
+        <v>1.488265423922059</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01612073295154914</v>
+        <v>0.01612073295135019</v>
       </c>
       <c r="E25">
-        <v>0.02385345228888625</v>
+        <v>0.02385345228890756</v>
       </c>
       <c r="F25">
-        <v>2.575177510663167</v>
+        <v>2.575177510663195</v>
       </c>
       <c r="G25">
-        <v>2.035229238786641</v>
+        <v>2.035229238786627</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.522983155488333</v>
+        <v>4.52298315548839</v>
       </c>
       <c r="K25">
-        <v>2.532300102210357</v>
+        <v>2.532300102210343</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.234154275538287</v>
+        <v>1.234096166590291</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01208617003164392</v>
+        <v>0.01195822729751939</v>
       </c>
       <c r="E2">
-        <v>0.02510634319287419</v>
+        <v>0.02506276424084675</v>
       </c>
       <c r="F2">
-        <v>2.100119479098069</v>
+        <v>2.09573427523712</v>
       </c>
       <c r="G2">
-        <v>1.657209507950355</v>
+        <v>0.5564563440903214</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.099988889955426</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.752884797756764</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.089310360206355</v>
+        <v>3.752345350715586</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.089044491543163</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.066448700086539</v>
+        <v>1.066411527154941</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01011907911998122</v>
+        <v>0.01001124804163922</v>
       </c>
       <c r="E3">
-        <v>0.02611652152544508</v>
+        <v>0.02607826616943498</v>
       </c>
       <c r="F3">
-        <v>1.802278693813406</v>
+        <v>1.798539616824783</v>
       </c>
       <c r="G3">
-        <v>1.421440575051918</v>
+        <v>0.4737086818573601</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9477771324675501</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.243149877755954</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.798123508197804</v>
+        <v>3.242755264009588</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.797934094355313</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9651751128725721</v>
+        <v>0.9651483853488685</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009210444456552835</v>
+        <v>0.00911383545311395</v>
       </c>
       <c r="E4">
-        <v>0.02681570641172648</v>
+        <v>0.026781243206905</v>
       </c>
       <c r="F4">
-        <v>1.628777101750046</v>
+        <v>1.625412874572248</v>
       </c>
       <c r="G4">
-        <v>1.284622317765084</v>
+        <v>0.4255071871019709</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.85963236223553</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.934480134244424</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.622600455694396</v>
+        <v>2.934163616403453</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.62245138020397</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9242642820547076</v>
+        <v>0.9242413077376455</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008905314377248175</v>
+        <v>0.008813038251410887</v>
       </c>
       <c r="E5">
-        <v>0.02712041219393502</v>
+        <v>0.02708761852633934</v>
       </c>
       <c r="F5">
-        <v>1.560106836321168</v>
+        <v>1.55689081081087</v>
       </c>
       <c r="G5">
-        <v>1.230592044495694</v>
+        <v>0.40642744122664</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8248689416522552</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.809562152732454</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.551742842909391</v>
+        <v>2.809275230253931</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.551608846948142</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9174909039477086</v>
+        <v>0.9174685251119001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008858312962413351</v>
+        <v>0.008766742934017913</v>
       </c>
       <c r="E6">
-        <v>0.02717220150361666</v>
+        <v>0.02713969235912739</v>
       </c>
       <c r="F6">
-        <v>1.548818248885695</v>
+        <v>1.54562658204172</v>
       </c>
       <c r="G6">
-        <v>1.221717133786768</v>
+        <v>0.4032907605893712</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8191614925440689</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.78886619430078</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.540013335212777</v>
+        <v>2.788584064363647</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.539881768987897</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.964622006079594</v>
+        <v>0.9645953310885034</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00920607793917938</v>
+        <v>0.009109528290885294</v>
       </c>
       <c r="E7">
-        <v>0.02681973575906582</v>
+        <v>0.02678529457659629</v>
       </c>
       <c r="F7">
-        <v>1.627843158506934</v>
+        <v>1.624480947319782</v>
       </c>
       <c r="G7">
-        <v>1.283887002261608</v>
+        <v>0.4252477064784159</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.85915907064377</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.93279220065763</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.621642321753825</v>
+        <v>2.932476090383304</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.621493454771112</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.175933388116789</v>
+        <v>1.175883065627602</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01133930646222581</v>
+        <v>0.01121856023013024</v>
       </c>
       <c r="E8">
-        <v>0.02543822706942578</v>
+        <v>0.02539637036493403</v>
       </c>
       <c r="F8">
-        <v>1.995270174607242</v>
+        <v>1.991112917520311</v>
       </c>
       <c r="G8">
-        <v>1.574091622479372</v>
+        <v>0.5273246283581869</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.046287735857319</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3.576094558405003</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.988133261186647</v>
+        <v>3.575607624005016</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.987895324866955</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.607348517053339</v>
+        <v>1.6072268746247</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0184384329794014</v>
+        <v>0.01825890253957141</v>
       </c>
       <c r="E9">
-        <v>0.0233588762812218</v>
+        <v>0.02330700630976068</v>
       </c>
       <c r="F9">
-        <v>2.807333236886308</v>
+        <v>2.801390199177945</v>
       </c>
       <c r="G9">
-        <v>2.220715482395946</v>
+        <v>0.753075976786846</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.464943420367362</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.883304889725707</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.740823201740795</v>
+        <v>4.882369014696195</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.740340930659485</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.9405909644872</v>
+        <v>1.940390918267099</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02636609871919404</v>
+        <v>0.02613214324862767</v>
       </c>
       <c r="E10">
-        <v>0.02221988920104145</v>
+        <v>0.02216402121753447</v>
       </c>
       <c r="F10">
-        <v>3.488776181612394</v>
+        <v>3.481286266420341</v>
       </c>
       <c r="G10">
-        <v>2.767587106890332</v>
+        <v>0.9428226020063022</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.820177071020751</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.891022897117722</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>3.328228499594246</v>
+        <v>5.889636107981005</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.327492119849097</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.097385028860543</v>
+        <v>2.09714012135089</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03084032523715763</v>
+        <v>0.03057779102883984</v>
       </c>
       <c r="E11">
-        <v>0.0217867564436709</v>
+        <v>0.02172995882462558</v>
       </c>
       <c r="F11">
-        <v>3.825631062992358</v>
+        <v>3.817355375256881</v>
       </c>
       <c r="G11">
-        <v>3.039102201838219</v>
+        <v>1.036742556323546</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.996821540140033</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.365351613438605</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3.606884529866193</v>
+        <v>6.363716543788684</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.606005731679119</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.157680392237296</v>
+        <v>2.157416747839761</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03269029030122184</v>
+        <v>0.03241622225598917</v>
       </c>
       <c r="E12">
-        <v>0.02163493413477724</v>
+        <v>0.02157792835793337</v>
       </c>
       <c r="F12">
-        <v>3.957964641997336</v>
+        <v>3.949375923671482</v>
       </c>
       <c r="G12">
-        <v>3.145961754917934</v>
+        <v>1.073662300380605</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.066384507139531</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.547858151037417</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3.714475577056191</v>
+        <v>6.546120837432483</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.713537706535476</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.144650592504036</v>
+        <v>2.144391069594917</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0322843645426083</v>
+        <v>0.03201281532397005</v>
       </c>
       <c r="E13">
-        <v>0.0216670909557628</v>
+        <v>0.02161012332681445</v>
       </c>
       <c r="F13">
-        <v>3.929235017156032</v>
+        <v>3.920714475387882</v>
       </c>
       <c r="G13">
-        <v>3.122753498259485</v>
+        <v>1.065645897895124</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.051274636315583</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.508412544340587</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.691203999781862</v>
+        <v>6.506697656232774</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.690279105525264</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.102325985172968</v>
+        <v>2.102079574183108</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03098919743684903</v>
+        <v>0.03072572971327858</v>
       </c>
       <c r="E14">
-        <v>0.02177402203929368</v>
+        <v>0.02171720431031332</v>
       </c>
       <c r="F14">
-        <v>3.836416543433586</v>
+        <v>3.828115437957308</v>
       </c>
       <c r="G14">
-        <v>3.047807483797413</v>
+        <v>1.03975110284901</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.002487636529864</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.380304702752198</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3.615691831062918</v>
+        <v>6.378661400290838</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.614808284953085</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.076526629106326</v>
+        <v>2.076288006672144</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03021719570809722</v>
+        <v>0.02995857975030702</v>
       </c>
       <c r="E15">
-        <v>0.0218411061056436</v>
+        <v>0.02178439945200239</v>
       </c>
       <c r="F15">
-        <v>3.780215019588013</v>
+        <v>3.772046180613984</v>
       </c>
       <c r="G15">
-        <v>3.00245346580374</v>
+        <v>1.024074977123249</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.972969258074784</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.302231326180504</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3.569722334317447</v>
+        <v>6.300630729352662</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.568863399939431</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.930462732758542</v>
+        <v>1.930265399935024</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02609362670635562</v>
+        <v>0.02586144928962497</v>
       </c>
       <c r="E16">
-        <v>0.02224990567989771</v>
+        <v>0.02219411765263501</v>
       </c>
       <c r="F16">
-        <v>3.467375593033353</v>
+        <v>3.459935089867656</v>
       </c>
       <c r="G16">
-        <v>2.750362539818482</v>
+        <v>0.9368586475676466</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.808976465933384</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.860392866598033</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>3.310282044492396</v>
+        <v>5.859021276659348</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.309554332064906</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.842301477899895</v>
+        <v>1.842126857489404</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02380587732143624</v>
+        <v>0.02358883995196237</v>
       </c>
       <c r="E17">
-        <v>0.02252246994444107</v>
+        <v>0.02246748379636365</v>
       </c>
       <c r="F17">
-        <v>3.282923433452225</v>
+        <v>3.275906443798306</v>
       </c>
       <c r="G17">
-        <v>2.602032658641349</v>
+        <v>0.8854689705246273</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.712551690866761</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.593801088968831</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3.15432743889977</v>
+        <v>5.592557689991253</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>3.153672568779399</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.792070745244246</v>
+        <v>1.791908355078391</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02256947954100141</v>
+        <v>0.02236080282895259</v>
       </c>
       <c r="E18">
-        <v>0.0226872477698663</v>
+        <v>0.02263280542877411</v>
       </c>
       <c r="F18">
-        <v>3.179294683827919</v>
+        <v>3.172513835747282</v>
       </c>
       <c r="G18">
-        <v>2.518802320809797</v>
+        <v>0.856607951673098</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.658470621181223</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.441919505820721</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>3.065673158390851</v>
+        <v>5.440745928587376</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>3.065057757520677</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.775140750215087</v>
+        <v>1.774982368723585</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02216368366417854</v>
+        <v>0.02195778221372535</v>
       </c>
       <c r="E19">
-        <v>0.0227444131085548</v>
+        <v>0.02269016862814155</v>
       </c>
       <c r="F19">
-        <v>3.14460640275081</v>
+        <v>3.13790432232102</v>
       </c>
       <c r="G19">
-        <v>2.490959366840968</v>
+        <v>0.8469488154085951</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.640383089108724</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.390728744936069</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>3.035824694832144</v>
+        <v>5.389578187996676</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>3.035222273177595</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.851635856043004</v>
+        <v>1.851458906760371</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02404098956848699</v>
+        <v>0.02382237749863592</v>
       </c>
       <c r="E20">
-        <v>0.02249262630829385</v>
+        <v>0.02243754614340077</v>
       </c>
       <c r="F20">
-        <v>3.302297810719779</v>
+        <v>3.295236531610868</v>
       </c>
       <c r="G20">
-        <v>2.617601800769251</v>
+        <v>0.8908656575698046</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.722670151906172</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.622025735488336</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>3.170817974105063</v>
+        <v>5.620769107658361</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>3.1701556090335</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.11473119197376</v>
+        <v>2.114480981286249</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03136510831043182</v>
+        <v>0.03109928772552095</v>
       </c>
       <c r="E21">
-        <v>0.02174228353637808</v>
+        <v>0.02168541773252741</v>
       </c>
       <c r="F21">
-        <v>3.863541657019596</v>
+        <v>3.855176553030617</v>
       </c>
       <c r="G21">
-        <v>3.069704134734479</v>
+        <v>1.047317881525558</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.016740394962852</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.417849199764447</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>3.637811518950741</v>
+        <v>6.416185113599994</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.636915979884691</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.292156106742027</v>
+        <v>2.291847505578971</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03707992941080818</v>
+        <v>0.03677898937894852</v>
       </c>
       <c r="E22">
-        <v>0.02132287572987046</v>
+        <v>0.02126569097946884</v>
       </c>
       <c r="F22">
-        <v>4.258769650824775</v>
+        <v>4.249459544113961</v>
       </c>
       <c r="G22">
-        <v>3.389249592310222</v>
+        <v>1.157633341120473</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.22483692229963</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.955192014424256</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>3.955360914308528</v>
+        <v>6.953212195935748</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.954282056257227</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.196892470215573</v>
+        <v>2.196616177083968</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03393245376303966</v>
+        <v>0.03365071643953499</v>
       </c>
       <c r="E23">
-        <v>0.02154026592787339</v>
+        <v>0.02148316779156012</v>
       </c>
       <c r="F23">
-        <v>4.044866056766381</v>
+        <v>4.036070366973888</v>
       </c>
       <c r="G23">
-        <v>3.216192207723509</v>
+        <v>1.097914136911584</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.112114547276548</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.666588332242895</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3.784581261578552</v>
+        <v>6.664782410117482</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.783603624843465</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.847414381053909</v>
+        <v>1.847238487201622</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02393445190910981</v>
+        <v>0.02371655281988794</v>
       </c>
       <c r="E24">
-        <v>0.02250609345780674</v>
+        <v>0.02245105554117899</v>
       </c>
       <c r="F24">
-        <v>3.293531197523436</v>
+        <v>3.286489964286005</v>
       </c>
       <c r="G24">
-        <v>2.610556673002733</v>
+        <v>0.8884237049507959</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.718091412351868</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.609261100407082</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>3.163359500039618</v>
+        <v>5.608010465274532</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>3.162700530847758</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.488265423922059</v>
+        <v>1.488166689627292</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01612073295135019</v>
+        <v>0.01595870204883454</v>
       </c>
       <c r="E25">
-        <v>0.02385345228890756</v>
+        <v>0.02380374951157904</v>
       </c>
       <c r="F25">
-        <v>2.575177510663195</v>
+        <v>2.569750377767491</v>
       </c>
       <c r="G25">
-        <v>2.035229238786627</v>
+        <v>0.6885026902617852</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.344667167094457</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.52298315548839</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.532300102210343</v>
+        <v>4.522185452347628</v>
       </c>
       <c r="L25">
+        <v>2.531894188004202</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.234096166590291</v>
+        <v>0.2733425230373143</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01195822729751939</v>
+        <v>1.323507593822995</v>
       </c>
       <c r="E2">
-        <v>0.02506276424084675</v>
+        <v>0.320092794449927</v>
       </c>
       <c r="F2">
-        <v>2.09573427523712</v>
+        <v>14.04697166261263</v>
       </c>
       <c r="G2">
-        <v>0.5564563440903214</v>
+        <v>0.0006272604035382329</v>
       </c>
       <c r="H2">
-        <v>1.099988889955426</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06263583241137738</v>
       </c>
       <c r="K2">
-        <v>3.752345350715586</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.089044491543163</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>8.688814281568824</v>
+      </c>
+      <c r="N2">
+        <v>0.869165575638732</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.066411527154941</v>
+        <v>0.2383229326563168</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01001124804163922</v>
+        <v>1.063814218230135</v>
       </c>
       <c r="E3">
-        <v>0.02607826616943498</v>
+        <v>0.2611028402036268</v>
       </c>
       <c r="F3">
-        <v>1.798539616824783</v>
+        <v>11.55108228791084</v>
       </c>
       <c r="G3">
-        <v>0.4737086818573601</v>
+        <v>0.0006721813625789313</v>
       </c>
       <c r="H3">
-        <v>0.9477771324675501</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.05757148423817426</v>
       </c>
       <c r="K3">
-        <v>3.242755264009588</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.797934094355313</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>7.172282748236171</v>
+      </c>
+      <c r="N3">
+        <v>0.9127625759982863</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9651483853488685</v>
+        <v>0.2171464401949663</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00911383545311395</v>
+        <v>0.9262331616246229</v>
       </c>
       <c r="E4">
-        <v>0.026781243206905</v>
+        <v>0.2293137714025804</v>
       </c>
       <c r="F4">
-        <v>1.625412874572248</v>
+        <v>10.24481030190114</v>
       </c>
       <c r="G4">
-        <v>0.4255071871019709</v>
+        <v>0.000697839620277324</v>
       </c>
       <c r="H4">
-        <v>0.85963236223553</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05478808934361723</v>
       </c>
       <c r="K4">
-        <v>2.934163616403453</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.62245138020397</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.346334263700413</v>
+      </c>
+      <c r="N4">
+        <v>0.9383510713657159</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9242413077376455</v>
+        <v>0.2085813746862186</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008813038251410887</v>
+        <v>0.8738559926742084</v>
       </c>
       <c r="E5">
-        <v>0.02708761852633934</v>
+        <v>0.2170975684157526</v>
       </c>
       <c r="F5">
-        <v>1.55689081081087</v>
+        <v>9.751389519110177</v>
       </c>
       <c r="G5">
-        <v>0.40642744122664</v>
+        <v>0.0007080144598920664</v>
       </c>
       <c r="H5">
-        <v>0.8248689416522552</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05370729009644037</v>
       </c>
       <c r="K5">
-        <v>2.809275230253931</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.551608846948142</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6.027641213108126</v>
+      </c>
+      <c r="N5">
+        <v>0.9487061305027567</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9174685251119001</v>
+        <v>0.2071626536041009</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008766742934017913</v>
+        <v>0.8653444807758035</v>
       </c>
       <c r="E6">
-        <v>0.02713969235912739</v>
+        <v>0.2151059893089524</v>
       </c>
       <c r="F6">
-        <v>1.54562658204172</v>
+        <v>9.671436025834339</v>
       </c>
       <c r="G6">
-        <v>0.4032907605893712</v>
+        <v>0.0007096911732546076</v>
       </c>
       <c r="H6">
-        <v>0.8191614925440689</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05353048504027669</v>
       </c>
       <c r="K6">
-        <v>2.788584064363647</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.539881768987897</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5.975626431515451</v>
+      </c>
+      <c r="N6">
+        <v>0.9504256663500144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9645953310885034</v>
+        <v>0.2170306859461277</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009109528290885294</v>
+        <v>0.9255136086132438</v>
       </c>
       <c r="E7">
-        <v>0.02678529457659629</v>
+        <v>0.2291463944121475</v>
       </c>
       <c r="F7">
-        <v>1.624480947319782</v>
+        <v>10.238015915342</v>
       </c>
       <c r="G7">
-        <v>0.4252477064784159</v>
+        <v>0.0006979777825350031</v>
       </c>
       <c r="H7">
-        <v>0.85915907064377</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0547733238695578</v>
       </c>
       <c r="K7">
-        <v>2.932476090383304</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.621493454771112</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6.341972185232294</v>
+      </c>
+      <c r="N7">
+        <v>0.9384908043674045</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.175883065627602</v>
+        <v>0.2611872344142085</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01121856023013024</v>
+        <v>1.227971558830632</v>
       </c>
       <c r="E8">
-        <v>0.02539637036493403</v>
+        <v>0.2985306048832115</v>
       </c>
       <c r="F8">
-        <v>1.991112917520311</v>
+        <v>13.12506324713962</v>
       </c>
       <c r="G8">
-        <v>0.5273246283581869</v>
+        <v>0.0006433103765071263</v>
       </c>
       <c r="H8">
-        <v>1.046287735857319</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.06079856817043705</v>
       </c>
       <c r="K8">
-        <v>3.575607624005016</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.987895324866955</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>8.137229357116809</v>
+      </c>
+      <c r="N8">
+        <v>0.8846261305040741</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.6072268746247</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01825890253957141</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E9">
-        <v>0.02330700630976068</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F9">
-        <v>2.801390199177945</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G9">
-        <v>0.753075976786846</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H9">
-        <v>1.464943420367362</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K9">
-        <v>4.882369014696195</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>2.740340930659485</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N9">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.940390918267099</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02613214324862767</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E10">
-        <v>0.02216402121753447</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F10">
-        <v>3.481286266420341</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G10">
-        <v>0.9428226020063022</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H10">
-        <v>1.820177071020751</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K10">
-        <v>5.889636107981005</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>3.327492119849097</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N10">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.09714012135089</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03057779102883984</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E11">
-        <v>0.02172995882462558</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F11">
-        <v>3.817355375256881</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G11">
-        <v>1.036742556323546</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H11">
-        <v>1.996821540140033</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K11">
-        <v>6.363716543788684</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>3.606005731679119</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N11">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.157416747839761</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03241622225598917</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E12">
-        <v>0.02157792835793337</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F12">
-        <v>3.949375923671482</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G12">
-        <v>1.073662300380605</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H12">
-        <v>2.066384507139531</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K12">
-        <v>6.546120837432483</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>3.713537706535476</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N12">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.144391069594917</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03201281532397005</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E13">
-        <v>0.02161012332681445</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F13">
-        <v>3.920714475387882</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G13">
-        <v>1.065645897895124</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H13">
-        <v>2.051274636315583</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K13">
-        <v>6.506697656232774</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>3.690279105525264</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N13">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.102079574183108</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03072572971327858</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E14">
-        <v>0.02171720431031332</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F14">
-        <v>3.828115437957308</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G14">
-        <v>1.03975110284901</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H14">
-        <v>2.002487636529864</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K14">
-        <v>6.378661400290838</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3.614808284953085</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N14">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.076288006672144</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02995857975030702</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E15">
-        <v>0.02178439945200239</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F15">
-        <v>3.772046180613984</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G15">
-        <v>1.024074977123249</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H15">
-        <v>1.972969258074784</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K15">
-        <v>6.300630729352662</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>3.568863399939431</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N15">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.930265399935024</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02586144928962497</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E16">
-        <v>0.02219411765263501</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F16">
-        <v>3.459935089867656</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G16">
-        <v>0.9368586475676466</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H16">
-        <v>1.808976465933384</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K16">
-        <v>5.859021276659348</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.309554332064906</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N16">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.842126857489404</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02358883995196237</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E17">
-        <v>0.02246748379636365</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F17">
-        <v>3.275906443798306</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G17">
-        <v>0.8854689705246273</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H17">
-        <v>1.712551690866761</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K17">
-        <v>5.592557689991253</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>3.153672568779399</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N17">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.791908355078391</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02236080282895259</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E18">
-        <v>0.02263280542877411</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F18">
-        <v>3.172513835747282</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G18">
-        <v>0.856607951673098</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H18">
-        <v>1.658470621181223</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K18">
-        <v>5.440745928587376</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3.065057757520677</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N18">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.774982368723585</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02195778221372535</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E19">
-        <v>0.02269016862814155</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F19">
-        <v>3.13790432232102</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G19">
-        <v>0.8469488154085951</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H19">
-        <v>1.640383089108724</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K19">
-        <v>5.389578187996676</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.035222273177595</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N19">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.851458906760371</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02382237749863592</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E20">
-        <v>0.02243754614340077</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F20">
-        <v>3.295236531610868</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G20">
-        <v>0.8908656575698046</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H20">
-        <v>1.722670151906172</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K20">
-        <v>5.620769107658361</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3.1701556090335</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N20">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.114480981286249</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03109928772552095</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E21">
-        <v>0.02168541773252741</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F21">
-        <v>3.855176553030617</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G21">
-        <v>1.047317881525558</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H21">
-        <v>2.016740394962852</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K21">
-        <v>6.416185113599994</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>3.636915979884691</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N21">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.291847505578971</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03677898937894852</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E22">
-        <v>0.02126569097946884</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F22">
-        <v>4.249459544113961</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G22">
-        <v>1.157633341120473</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H22">
-        <v>2.22483692229963</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K22">
-        <v>6.953212195935748</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>3.954282056257227</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N22">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.196616177083968</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03365071643953499</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E23">
-        <v>0.02148316779156012</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F23">
-        <v>4.036070366973888</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G23">
-        <v>1.097914136911584</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H23">
-        <v>2.112114547276548</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K23">
-        <v>6.664782410117482</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>3.783603624843465</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N23">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.847238487201622</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02371655281988794</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E24">
-        <v>0.02245105554117899</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F24">
-        <v>3.286489964286005</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G24">
-        <v>0.8884237049507959</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H24">
-        <v>1.718091412351868</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K24">
-        <v>5.608010465274532</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3.162700530847758</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N24">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.488166689627292</v>
+        <v>0.3522068689936191</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01595870204883454</v>
+        <v>2.24911508141318</v>
       </c>
       <c r="E25">
-        <v>0.02380374951157904</v>
+        <v>0.5232583686292571</v>
       </c>
       <c r="F25">
-        <v>2.569750377767491</v>
+        <v>23.05790114017054</v>
       </c>
       <c r="G25">
-        <v>0.6885026902617852</v>
+        <v>0.0004928121501033613</v>
       </c>
       <c r="H25">
-        <v>1.344667167094457</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07958712273072877</v>
       </c>
       <c r="K25">
-        <v>4.522185452347628</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.531894188004202</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>13.67291160957586</v>
+      </c>
+      <c r="N25">
+        <v>0.7362024139852252</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2733425230373143</v>
+        <v>0.2709126950409058</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.323507593822995</v>
+        <v>0.04031016672990262</v>
       </c>
       <c r="E2">
-        <v>0.320092794449927</v>
+        <v>0.02566514044335566</v>
       </c>
       <c r="F2">
-        <v>14.04697166261263</v>
+        <v>2.824671407392799</v>
       </c>
       <c r="G2">
-        <v>0.0006272604035382329</v>
+        <v>3.193603169822438</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.530313895270609</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06263583241137738</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>8.688814281568824</v>
+        <v>3.181098715853096</v>
       </c>
       <c r="N2">
-        <v>0.869165575638732</v>
+        <v>1.80046223689223</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2383229326563168</v>
+        <v>0.2370345113326664</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.063814218230135</v>
+        <v>0.0338885231770476</v>
       </c>
       <c r="E3">
-        <v>0.2611028402036268</v>
+        <v>0.02904607676607096</v>
       </c>
       <c r="F3">
-        <v>11.55108228791084</v>
+        <v>2.418293025716991</v>
       </c>
       <c r="G3">
-        <v>0.0006721813625789313</v>
+        <v>2.72706669334039</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.317554851680597</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05757148423817426</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.172282748236171</v>
+        <v>2.743839619336242</v>
       </c>
       <c r="N3">
-        <v>0.9127625759982863</v>
+        <v>1.680270167891422</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2171464401949663</v>
+        <v>0.216367259013893</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9262331616246229</v>
+        <v>0.03013660083018266</v>
       </c>
       <c r="E4">
-        <v>0.2293137714025804</v>
+        <v>0.0312692083409285</v>
       </c>
       <c r="F4">
-        <v>10.24481030190114</v>
+        <v>2.176535316513721</v>
       </c>
       <c r="G4">
-        <v>0.000697839620277324</v>
+        <v>2.449426219565709</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.19139332925991</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05478808934361723</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.346334263700413</v>
+        <v>2.479196007990126</v>
       </c>
       <c r="N4">
-        <v>0.9383510713657159</v>
+        <v>1.607741699734973</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2085813746862186</v>
+        <v>0.2079755542918065</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8738559926742084</v>
+        <v>0.02864795412016719</v>
       </c>
       <c r="E5">
-        <v>0.2170975684157526</v>
+        <v>0.03221091202553161</v>
       </c>
       <c r="F5">
-        <v>9.751389519110177</v>
+        <v>2.079673971070378</v>
       </c>
       <c r="G5">
-        <v>0.0007080144598920664</v>
+        <v>2.338159123650257</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.140943946917929</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05370729009644037</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6.027641213108126</v>
+        <v>2.372135907246644</v>
       </c>
       <c r="N5">
-        <v>0.9487061305027567</v>
+        <v>1.578491095471165</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2071626536041009</v>
+        <v>0.206583858571193</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8653444807758035</v>
+        <v>0.02840299151122139</v>
       </c>
       <c r="E6">
-        <v>0.2151059893089524</v>
+        <v>0.03236940690461942</v>
       </c>
       <c r="F6">
-        <v>9.671436025834339</v>
+        <v>2.063682326580334</v>
       </c>
       <c r="G6">
-        <v>0.0007096911732546076</v>
+        <v>2.319787201846964</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.132620605883574</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05353048504027669</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.975626431515451</v>
+        <v>2.35440117451229</v>
       </c>
       <c r="N6">
-        <v>0.9504256663500144</v>
+        <v>1.573652110946171</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2170306859461277</v>
+        <v>0.2162539668562999</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9255136086132438</v>
+        <v>0.03011637078222407</v>
       </c>
       <c r="E7">
-        <v>0.2291463944121475</v>
+        <v>0.03128176525543669</v>
       </c>
       <c r="F7">
-        <v>10.238015915342</v>
+        <v>2.175222666179948</v>
       </c>
       <c r="G7">
-        <v>0.0006979777825350031</v>
+        <v>2.447918470312487</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.190709255105276</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0547733238695578</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.341972185232294</v>
+        <v>2.477749204597828</v>
       </c>
       <c r="N7">
-        <v>0.9384908043674045</v>
+        <v>1.607345997158404</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2611872344142085</v>
+        <v>0.2592015710230129</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.227971558830632</v>
+        <v>0.03805135722303987</v>
       </c>
       <c r="E8">
-        <v>0.2985306048832115</v>
+        <v>0.02679952391859786</v>
       </c>
       <c r="F8">
-        <v>13.12506324713962</v>
+        <v>2.682752782302629</v>
       </c>
       <c r="G8">
-        <v>0.0006433103765071263</v>
+        <v>3.030692081033465</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.455922019548439</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06079856817043705</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>8.137229357116809</v>
+        <v>3.029420079783065</v>
       </c>
       <c r="N8">
-        <v>0.8846261305040741</v>
+        <v>1.75874757020577</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3522068689936191</v>
+        <v>0.3446528705654259</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.24911508141318</v>
+        <v>0.0555400204986114</v>
       </c>
       <c r="E9">
-        <v>0.5232583686292571</v>
+        <v>0.01924391809624737</v>
       </c>
       <c r="F9">
-        <v>23.05790114017054</v>
+        <v>3.755071148185067</v>
       </c>
       <c r="G9">
-        <v>0.0004928121501033613</v>
+        <v>4.261487068539452</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.020040684335953</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.67291160957586</v>
+        <v>4.15121013349345</v>
       </c>
       <c r="N9">
-        <v>0.7362024139852252</v>
+        <v>2.06643818751607</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3522068689936191</v>
+        <v>0.4084438374773498</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.24911508141318</v>
+        <v>0.07026768430672092</v>
       </c>
       <c r="E10">
-        <v>0.5232583686292571</v>
+        <v>0.01455451018427301</v>
       </c>
       <c r="F10">
-        <v>23.05790114017054</v>
+        <v>4.615749758241094</v>
       </c>
       <c r="G10">
-        <v>0.0004928121501033613</v>
+        <v>5.249560078438378</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.475637969434672</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.67291160957586</v>
+        <v>5.015789928079926</v>
       </c>
       <c r="N10">
-        <v>0.7362024139852252</v>
+        <v>2.300208736191081</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3522068689936191</v>
+        <v>0.4377480300768326</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.24911508141318</v>
+        <v>0.07758176197888389</v>
       </c>
       <c r="E11">
-        <v>0.5232583686292571</v>
+        <v>0.0126392206748811</v>
       </c>
       <c r="F11">
-        <v>23.05790114017054</v>
+        <v>5.030493390520888</v>
       </c>
       <c r="G11">
-        <v>0.0004928121501033613</v>
+        <v>5.725877870955514</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.695917296900006</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.67291160957586</v>
+        <v>5.422477475960591</v>
       </c>
       <c r="N11">
-        <v>0.7362024139852252</v>
+        <v>2.408518030795932</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3522068689936191</v>
+        <v>0.4488917516826518</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.24911508141318</v>
+        <v>0.08046219441180824</v>
       </c>
       <c r="E12">
-        <v>0.5232583686292571</v>
+        <v>0.01194854795658973</v>
       </c>
       <c r="F12">
-        <v>23.05790114017054</v>
+        <v>5.191668769307825</v>
       </c>
       <c r="G12">
-        <v>0.0004928121501033613</v>
+        <v>5.911023381310144</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.781638889602505</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.67291160957586</v>
+        <v>5.578893004856354</v>
       </c>
       <c r="N12">
-        <v>0.7362024139852252</v>
+        <v>2.449841175182002</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3522068689936191</v>
+        <v>0.4464895674177001</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.24911508141318</v>
+        <v>0.07983649988858588</v>
       </c>
       <c r="E13">
-        <v>0.5232583686292571</v>
+        <v>0.012095698330163</v>
       </c>
       <c r="F13">
-        <v>23.05790114017054</v>
+        <v>5.156759122417697</v>
       </c>
       <c r="G13">
-        <v>0.0004928121501033613</v>
+        <v>5.870919836882024</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.763066661409027</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.67291160957586</v>
+        <v>5.545089907380572</v>
       </c>
       <c r="N13">
-        <v>0.7362024139852252</v>
+        <v>2.4409273167729</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3522068689936191</v>
+        <v>0.4386638557503204</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.24911508141318</v>
+        <v>0.07781636938035064</v>
       </c>
       <c r="E14">
-        <v>0.5232583686292571</v>
+        <v>0.01258168396263848</v>
       </c>
       <c r="F14">
-        <v>23.05790114017054</v>
+        <v>5.043665686074149</v>
       </c>
       <c r="G14">
-        <v>0.0004928121501033613</v>
+        <v>5.741008240962174</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.702920603909035</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.67291160957586</v>
+        <v>5.43529435658516</v>
       </c>
       <c r="N14">
-        <v>0.7362024139852252</v>
+        <v>2.411911362577712</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3522068689936191</v>
+        <v>0.4338766687021831</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.24911508141318</v>
+        <v>0.07659416159845733</v>
       </c>
       <c r="E15">
-        <v>0.5232583686292571</v>
+        <v>0.01288397917265982</v>
       </c>
       <c r="F15">
-        <v>23.05790114017054</v>
+        <v>4.974955556158079</v>
       </c>
       <c r="G15">
-        <v>0.0004928121501033613</v>
+        <v>5.662086038934376</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.666394313206013</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.67291160957586</v>
+        <v>5.368371814622975</v>
       </c>
       <c r="N15">
-        <v>0.7362024139852252</v>
+        <v>2.394179288041698</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3522068689936191</v>
+        <v>0.4065349643154974</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.24911508141318</v>
+        <v>0.06980385144048995</v>
       </c>
       <c r="E16">
-        <v>0.5232583686292571</v>
+        <v>0.01468432898220851</v>
       </c>
       <c r="F16">
-        <v>23.05790114017054</v>
+        <v>4.589175536981315</v>
       </c>
       <c r="G16">
-        <v>0.0004928121501033613</v>
+        <v>5.219045382926083</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.461539244495839</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.67291160957586</v>
+        <v>4.989520524613766</v>
       </c>
       <c r="N16">
-        <v>0.7362024139852252</v>
+        <v>2.293172189777351</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3522068689936191</v>
+        <v>0.3898387381229753</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.24911508141318</v>
+        <v>0.06580992393610074</v>
       </c>
       <c r="E17">
-        <v>0.5232583686292571</v>
+        <v>0.01584673240180745</v>
       </c>
       <c r="F17">
-        <v>23.05790114017054</v>
+        <v>4.358963860580559</v>
       </c>
       <c r="G17">
-        <v>0.0004928121501033613</v>
+        <v>4.954719143053097</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.339483475269788</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.67291160957586</v>
+        <v>4.760850245113588</v>
       </c>
       <c r="N17">
-        <v>0.7362024139852252</v>
+        <v>2.231728758835885</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3522068689936191</v>
+        <v>0.380261984599187</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.24911508141318</v>
+        <v>0.06356894370131982</v>
       </c>
       <c r="E18">
-        <v>0.5232583686292571</v>
+        <v>0.01653560063336013</v>
       </c>
       <c r="F18">
-        <v>23.05790114017054</v>
+        <v>4.228681955079111</v>
       </c>
       <c r="G18">
-        <v>0.0004928121501033613</v>
+        <v>4.805146904082676</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.270475512799806</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.67291160957586</v>
+        <v>4.630550497068526</v>
       </c>
       <c r="N18">
-        <v>0.7362024139852252</v>
+        <v>2.196571436031263</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3522068689936191</v>
+        <v>0.3770238407422823</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.24911508141318</v>
+        <v>0.06281924271870309</v>
       </c>
       <c r="E19">
-        <v>0.5232583686292571</v>
+        <v>0.0167722342503005</v>
       </c>
       <c r="F19">
-        <v>23.05790114017054</v>
+        <v>4.184915355389023</v>
       </c>
       <c r="G19">
-        <v>0.0004928121501033613</v>
+        <v>4.754902285767457</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.247304170266858</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.67291160957586</v>
+        <v>4.586630536310821</v>
       </c>
       <c r="N19">
-        <v>0.7362024139852252</v>
+        <v>2.184698507846065</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3522068689936191</v>
+        <v>0.3916132998874673</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.24911508141318</v>
+        <v>0.06622912000470649</v>
       </c>
       <c r="E20">
-        <v>0.5232583686292571</v>
+        <v>0.01572087159841651</v>
       </c>
       <c r="F20">
-        <v>23.05790114017054</v>
+        <v>4.383244730254802</v>
       </c>
       <c r="G20">
-        <v>0.0004928121501033613</v>
+        <v>4.982596394632736</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.352349969537556</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.67291160957586</v>
+        <v>4.785062576208617</v>
       </c>
       <c r="N20">
-        <v>0.7362024139852252</v>
+        <v>2.238250365191533</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3522068689936191</v>
+        <v>0.4409611352875089</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.24911508141318</v>
+        <v>0.07840651909522478</v>
       </c>
       <c r="E21">
-        <v>0.5232583686292571</v>
+        <v>0.0124379696450978</v>
       </c>
       <c r="F21">
-        <v>23.05790114017054</v>
+        <v>5.076765016756212</v>
       </c>
       <c r="G21">
-        <v>0.0004928121501033613</v>
+        <v>5.779028532190353</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.720520416653414</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.67291160957586</v>
+        <v>5.467474085842198</v>
       </c>
       <c r="N21">
-        <v>0.7362024139852252</v>
+        <v>2.420425449146052</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3522068689936191</v>
+        <v>0.4734891720351015</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.24911508141318</v>
+        <v>0.08702540222948585</v>
       </c>
       <c r="E22">
-        <v>0.5232583686292571</v>
+        <v>0.01049614644046581</v>
       </c>
       <c r="F22">
-        <v>23.05790114017054</v>
+        <v>5.55454149544039</v>
       </c>
       <c r="G22">
-        <v>0.0004928121501033613</v>
+        <v>6.32795760818891</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.974863473280323</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.67291160957586</v>
+        <v>5.927839555470058</v>
       </c>
       <c r="N22">
-        <v>0.7362024139852252</v>
+        <v>2.54130146407141</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3522068689936191</v>
+        <v>0.4561009429832694</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.24911508141318</v>
+        <v>0.08235600382587904</v>
       </c>
       <c r="E23">
-        <v>0.5232583686292571</v>
+        <v>0.01151262866734282</v>
       </c>
       <c r="F23">
-        <v>23.05790114017054</v>
+        <v>5.296992361397457</v>
       </c>
       <c r="G23">
-        <v>0.0004928121501033613</v>
+        <v>6.032024405723234</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.83768988340961</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.67291160957586</v>
+        <v>5.680627540140421</v>
       </c>
       <c r="N23">
-        <v>0.7362024139852252</v>
+        <v>2.47661225190393</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3522068689936191</v>
+        <v>0.3908109520170058</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.24911508141318</v>
+        <v>0.06603943119841915</v>
       </c>
       <c r="E24">
-        <v>0.5232583686292571</v>
+        <v>0.01577770938127809</v>
       </c>
       <c r="F24">
-        <v>23.05790114017054</v>
+        <v>4.372260958622775</v>
       </c>
       <c r="G24">
-        <v>0.0004928121501033613</v>
+        <v>4.969985703550037</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.346529434753052</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.67291160957586</v>
+        <v>4.774112585240218</v>
       </c>
       <c r="N24">
-        <v>0.7362024139852252</v>
+        <v>2.235301427713466</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3522068689936191</v>
+        <v>0.3213788381779779</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.24911508141318</v>
+        <v>0.05053797588555398</v>
       </c>
       <c r="E25">
-        <v>0.5232583686292571</v>
+        <v>0.0211456373586083</v>
       </c>
       <c r="F25">
-        <v>23.05790114017054</v>
+        <v>3.454332519575132</v>
       </c>
       <c r="G25">
-        <v>0.0004928121501033613</v>
+        <v>3.916309467835447</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.861392641184551</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07958712273072877</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.67291160957586</v>
+        <v>3.841973540090848</v>
       </c>
       <c r="N25">
-        <v>0.7362024139852252</v>
+        <v>1.981934586155347</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2709126950409058</v>
+        <v>0.1424986629922103</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04031016672990262</v>
+        <v>0.01099854060988292</v>
       </c>
       <c r="E2">
-        <v>0.02566514044335566</v>
+        <v>0.07835222606900327</v>
       </c>
       <c r="F2">
-        <v>2.824671407392799</v>
+        <v>1.063950388120105</v>
       </c>
       <c r="G2">
-        <v>3.193603169822438</v>
+        <v>1.050397112036137</v>
       </c>
       <c r="H2">
-        <v>1.530313895270609</v>
+        <v>0.7645655513645124</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.181098715853096</v>
+        <v>0.9667229984368362</v>
       </c>
       <c r="N2">
-        <v>1.80046223689223</v>
+        <v>1.345383587036309</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2370345113326664</v>
+        <v>0.1329151440306902</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0338885231770476</v>
+        <v>0.009659313430020688</v>
       </c>
       <c r="E3">
-        <v>0.02904607676607096</v>
+        <v>0.08039564552838119</v>
       </c>
       <c r="F3">
-        <v>2.418293025716991</v>
+        <v>0.9725066926833534</v>
       </c>
       <c r="G3">
-        <v>2.72706669334039</v>
+        <v>0.942272679903482</v>
       </c>
       <c r="H3">
-        <v>1.317554851680597</v>
+        <v>0.7206173081418115</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.743839619336242</v>
+        <v>0.8458850692355213</v>
       </c>
       <c r="N3">
-        <v>1.680270167891422</v>
+        <v>1.308409149654665</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.216367259013893</v>
+        <v>0.1270977887459424</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03013660083018266</v>
+        <v>0.008846725707257974</v>
       </c>
       <c r="E4">
-        <v>0.0312692083409285</v>
+        <v>0.08172991297474841</v>
       </c>
       <c r="F4">
-        <v>2.176535316513721</v>
+        <v>0.9171550594140285</v>
       </c>
       <c r="G4">
-        <v>2.449426219565709</v>
+        <v>0.876593798487022</v>
       </c>
       <c r="H4">
-        <v>1.19139332925991</v>
+        <v>0.6942582471556022</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.479196007990126</v>
+        <v>0.771693125926376</v>
       </c>
       <c r="N4">
-        <v>1.607741699734973</v>
+        <v>1.286260518814828</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2079755542918065</v>
+        <v>0.1247442048677527</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02864795412016719</v>
+        <v>0.008517889251933752</v>
       </c>
       <c r="E5">
-        <v>0.03221091202553161</v>
+        <v>0.08229364610825041</v>
       </c>
       <c r="F5">
-        <v>2.079673971070378</v>
+        <v>0.8947939911865177</v>
       </c>
       <c r="G5">
-        <v>2.338159123650257</v>
+        <v>0.8500019031600345</v>
       </c>
       <c r="H5">
-        <v>1.140943946917929</v>
+        <v>0.6836714243439133</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.372135907246644</v>
+        <v>0.7414586268383232</v>
       </c>
       <c r="N5">
-        <v>1.578491095471165</v>
+        <v>1.277375529124143</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.206583858571193</v>
+        <v>0.1243544287756464</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02840299151122139</v>
+        <v>0.00846342103194786</v>
       </c>
       <c r="E6">
-        <v>0.03236940690461942</v>
+        <v>0.08238846180226389</v>
       </c>
       <c r="F6">
-        <v>2.063682326580334</v>
+        <v>0.891092602215636</v>
       </c>
       <c r="G6">
-        <v>2.319787201846964</v>
+        <v>0.8455966083115811</v>
       </c>
       <c r="H6">
-        <v>1.132620605883574</v>
+        <v>0.6819227609746576</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.35440117451229</v>
+        <v>0.7364381292003088</v>
       </c>
       <c r="N6">
-        <v>1.573652110946171</v>
+        <v>1.275908729091128</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2162539668562999</v>
+        <v>0.1270659782516219</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03011637078222407</v>
+        <v>0.008842281776360039</v>
       </c>
       <c r="E7">
-        <v>0.03128176525543669</v>
+        <v>0.08173743467305616</v>
       </c>
       <c r="F7">
-        <v>2.175222666179948</v>
+        <v>0.9168527062552414</v>
       </c>
       <c r="G7">
-        <v>2.447918470312487</v>
+        <v>0.8762344788380005</v>
       </c>
       <c r="H7">
-        <v>1.190709255105276</v>
+        <v>0.6941148464769924</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.477749204597828</v>
+        <v>0.771285377522787</v>
       </c>
       <c r="N7">
-        <v>1.607345997158404</v>
+        <v>1.286140120814153</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2592015710230129</v>
+        <v>0.1391804819419917</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03805135722303987</v>
+        <v>0.01053467589823498</v>
       </c>
       <c r="E8">
-        <v>0.02679952391859786</v>
+        <v>0.07904027162168514</v>
       </c>
       <c r="F8">
-        <v>2.682752782302629</v>
+        <v>1.032252643382918</v>
       </c>
       <c r="G8">
-        <v>3.030692081033465</v>
+        <v>1.012964948236231</v>
       </c>
       <c r="H8">
-        <v>1.455922019548439</v>
+        <v>0.749280856065667</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.029420079783065</v>
+        <v>0.92505653164676</v>
       </c>
       <c r="N8">
-        <v>1.75874757020577</v>
+        <v>1.332520729380633</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3446528705654259</v>
+        <v>0.1634609971099081</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0555400204986114</v>
+        <v>0.01393697086607659</v>
       </c>
       <c r="E9">
-        <v>0.01924391809624737</v>
+        <v>0.07438304367712689</v>
       </c>
       <c r="F9">
-        <v>3.755071148185067</v>
+        <v>1.265090107237711</v>
       </c>
       <c r="G9">
-        <v>4.261487068539452</v>
+        <v>1.287000617929607</v>
       </c>
       <c r="H9">
-        <v>2.020040684335953</v>
+        <v>0.8625448244238783</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.15121013349345</v>
+        <v>1.226707465036256</v>
       </c>
       <c r="N9">
-        <v>2.06643818751607</v>
+        <v>1.427808475257649</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4084438374773498</v>
+        <v>0.181611468663931</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07026768430672092</v>
+        <v>0.01649687273585698</v>
       </c>
       <c r="E10">
-        <v>0.01455451018427301</v>
+        <v>0.07134699480116957</v>
       </c>
       <c r="F10">
-        <v>4.615749758241094</v>
+        <v>1.440479211173226</v>
       </c>
       <c r="G10">
-        <v>5.249560078438378</v>
+        <v>1.492338520280271</v>
       </c>
       <c r="H10">
-        <v>2.475637969434672</v>
+        <v>0.9490383187026623</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.015789928079926</v>
+        <v>1.44853350833678</v>
       </c>
       <c r="N10">
-        <v>2.300208736191081</v>
+        <v>1.500390354605315</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4377480300768326</v>
+        <v>0.1899347012111008</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07758176197888389</v>
+        <v>0.01767658116322934</v>
       </c>
       <c r="E11">
-        <v>0.0126392206748811</v>
+        <v>0.07004964879288167</v>
       </c>
       <c r="F11">
-        <v>5.030493390520888</v>
+        <v>1.521282223839165</v>
       </c>
       <c r="G11">
-        <v>5.725877870955514</v>
+        <v>1.586710997141779</v>
       </c>
       <c r="H11">
-        <v>2.695917296900006</v>
+        <v>0.9891383724448701</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.422477475960591</v>
+        <v>1.549524306988843</v>
       </c>
       <c r="N11">
-        <v>2.408518030795932</v>
+        <v>1.533954996273195</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4488917516826518</v>
+        <v>0.193095882340927</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08046219441180824</v>
+        <v>0.01812565882629258</v>
       </c>
       <c r="E12">
-        <v>0.01194854795658973</v>
+        <v>0.06957043605755331</v>
       </c>
       <c r="F12">
-        <v>5.191668769307825</v>
+        <v>1.55203244377887</v>
       </c>
       <c r="G12">
-        <v>5.911023381310144</v>
+        <v>1.622592937645095</v>
       </c>
       <c r="H12">
-        <v>2.781638889602505</v>
+        <v>1.004434751645817</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.578893004856354</v>
+        <v>1.587780785270041</v>
       </c>
       <c r="N12">
-        <v>2.449841175182002</v>
+        <v>1.546742393132575</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4464895674177001</v>
+        <v>0.1924146527230732</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07983649988858588</v>
+        <v>0.01802883488264229</v>
       </c>
       <c r="E13">
-        <v>0.012095698330163</v>
+        <v>0.06967310624024137</v>
       </c>
       <c r="F13">
-        <v>5.156759122417697</v>
+        <v>1.545402989834372</v>
       </c>
       <c r="G13">
-        <v>5.870919836882024</v>
+        <v>1.614858558290223</v>
       </c>
       <c r="H13">
-        <v>2.763066661409027</v>
+        <v>1.001135401981685</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.545089907380572</v>
+        <v>1.579540940264593</v>
       </c>
       <c r="N13">
-        <v>2.4409273167729</v>
+        <v>1.543984987646382</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4386638557503204</v>
+        <v>0.1901945872134405</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07781636938035064</v>
+        <v>0.01771347905939535</v>
       </c>
       <c r="E14">
-        <v>0.01258168396263848</v>
+        <v>0.07000998178313722</v>
       </c>
       <c r="F14">
-        <v>5.043665686074149</v>
+        <v>1.523808987087392</v>
       </c>
       <c r="G14">
-        <v>5.741008240962174</v>
+        <v>1.589660078977886</v>
       </c>
       <c r="H14">
-        <v>2.702920603909035</v>
+        <v>0.9903945657226245</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.43529435658516</v>
+        <v>1.552671410230403</v>
       </c>
       <c r="N14">
-        <v>2.411911362577712</v>
+        <v>1.535005484103294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4338766687021831</v>
+        <v>0.1888359449413173</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07659416159845733</v>
+        <v>0.01752062512360197</v>
       </c>
       <c r="E15">
-        <v>0.01288397917265982</v>
+        <v>0.07021789943411605</v>
       </c>
       <c r="F15">
-        <v>4.974955556158079</v>
+        <v>1.510601981363607</v>
       </c>
       <c r="G15">
-        <v>5.662086038934376</v>
+        <v>1.574244381763094</v>
       </c>
       <c r="H15">
-        <v>2.666394313206013</v>
+        <v>0.9838300848833796</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.368371814622975</v>
+        <v>1.536214854247476</v>
       </c>
       <c r="N15">
-        <v>2.394179288041698</v>
+        <v>1.529515289998784</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4065349643154974</v>
+        <v>0.1810688460488024</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06980385144048995</v>
+        <v>0.01642009562475266</v>
       </c>
       <c r="E16">
-        <v>0.01468432898220851</v>
+        <v>0.07143346658254046</v>
       </c>
       <c r="F16">
-        <v>4.589175536981315</v>
+        <v>1.435219492688844</v>
       </c>
       <c r="G16">
-        <v>5.219045382926083</v>
+        <v>1.486191002864757</v>
       </c>
       <c r="H16">
-        <v>2.461539244495839</v>
+        <v>0.9464331057195068</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.989520524613766</v>
+        <v>1.441935304995027</v>
       </c>
       <c r="N16">
-        <v>2.293172189777351</v>
+        <v>1.49820770606965</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3898387381229753</v>
+        <v>0.1763208645652838</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06580992393610074</v>
+        <v>0.0157489632180372</v>
       </c>
       <c r="E17">
-        <v>0.01584673240180745</v>
+        <v>0.07220064535735737</v>
       </c>
       <c r="F17">
-        <v>4.358963860580559</v>
+        <v>1.389239325280101</v>
       </c>
       <c r="G17">
-        <v>4.954719143053097</v>
+        <v>1.432424486907053</v>
       </c>
       <c r="H17">
-        <v>2.339483475269788</v>
+        <v>0.9236864159461788</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.760850245113588</v>
+        <v>1.38411986668325</v>
       </c>
       <c r="N17">
-        <v>2.231728758835885</v>
+        <v>1.479140534930906</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.380261984599187</v>
+        <v>0.1735962221262071</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06356894370131982</v>
+        <v>0.01536436605358915</v>
       </c>
       <c r="E18">
-        <v>0.01653560063336013</v>
+        <v>0.07264978977537062</v>
       </c>
       <c r="F18">
-        <v>4.228681955079111</v>
+        <v>1.362888195790475</v>
       </c>
       <c r="G18">
-        <v>4.805146904082676</v>
+        <v>1.401589670192777</v>
       </c>
       <c r="H18">
-        <v>2.270475512799806</v>
+        <v>0.9106738848543614</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.630550497068526</v>
+        <v>1.350873469207826</v>
       </c>
       <c r="N18">
-        <v>2.196571436031263</v>
+        <v>1.468225151936082</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3770238407422823</v>
+        <v>0.1726747883934081</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06281924271870309</v>
+        <v>0.01523438712256819</v>
       </c>
       <c r="E19">
-        <v>0.0167722342503005</v>
+        <v>0.07280321580784932</v>
       </c>
       <c r="F19">
-        <v>4.184915355389023</v>
+        <v>1.353982382094443</v>
       </c>
       <c r="G19">
-        <v>4.754902285767457</v>
+        <v>1.391164833777196</v>
       </c>
       <c r="H19">
-        <v>2.247304170266858</v>
+        <v>0.9062801293958671</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.586630536310821</v>
+        <v>1.339618046964461</v>
       </c>
       <c r="N19">
-        <v>2.184698507846065</v>
+        <v>1.464538288493685</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3916132998874673</v>
+        <v>0.1768256477894568</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06622912000470649</v>
+        <v>0.01582025823071831</v>
       </c>
       <c r="E20">
-        <v>0.01572087159841651</v>
+        <v>0.07211816182762831</v>
       </c>
       <c r="F20">
-        <v>4.383244730254802</v>
+        <v>1.394124074435268</v>
       </c>
       <c r="G20">
-        <v>4.982596394632736</v>
+        <v>1.438138635056646</v>
       </c>
       <c r="H20">
-        <v>2.352349969537556</v>
+        <v>0.9261004948243396</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.785062576208617</v>
+        <v>1.390273628336004</v>
       </c>
       <c r="N20">
-        <v>2.238250365191533</v>
+        <v>1.481164943113555</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4409611352875089</v>
+        <v>0.1908464220682902</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07840651909522478</v>
+        <v>0.0178060416842527</v>
       </c>
       <c r="E21">
-        <v>0.0124379696450978</v>
+        <v>0.06991070570480495</v>
       </c>
       <c r="F21">
-        <v>5.076765016756212</v>
+        <v>1.530147502699947</v>
       </c>
       <c r="G21">
-        <v>5.779028532190353</v>
+        <v>1.597057490987254</v>
       </c>
       <c r="H21">
-        <v>2.720520416653414</v>
+        <v>0.993546363445148</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.467474085842198</v>
+        <v>1.560563262628904</v>
       </c>
       <c r="N21">
-        <v>2.420425449146052</v>
+        <v>1.537640898175027</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4734891720351015</v>
+        <v>0.2000642324690318</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08702540222948585</v>
+        <v>0.01911762763781866</v>
       </c>
       <c r="E22">
-        <v>0.01049614644046581</v>
+        <v>0.06853833316785796</v>
       </c>
       <c r="F22">
-        <v>5.55454149544039</v>
+        <v>1.619934551999052</v>
       </c>
       <c r="G22">
-        <v>6.32795760818891</v>
+        <v>1.701769247391212</v>
       </c>
       <c r="H22">
-        <v>2.974863473280323</v>
+        <v>1.038276646083148</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.927839555470058</v>
+        <v>1.671936697119889</v>
       </c>
       <c r="N22">
-        <v>2.54130146407141</v>
+        <v>1.5750005077509</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4561009429832694</v>
+        <v>0.1951396023207934</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08235600382587904</v>
+        <v>0.01841629586508731</v>
       </c>
       <c r="E23">
-        <v>0.01151262866734282</v>
+        <v>0.06926435293083699</v>
       </c>
       <c r="F23">
-        <v>5.296992361397457</v>
+        <v>1.571930415973327</v>
       </c>
       <c r="G23">
-        <v>6.032024405723234</v>
+        <v>1.64580270111469</v>
       </c>
       <c r="H23">
-        <v>2.83768988340961</v>
+        <v>1.014342732873843</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.680627540140421</v>
+        <v>1.61248672633721</v>
       </c>
       <c r="N23">
-        <v>2.47661225190393</v>
+        <v>1.555020335565416</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3908109520170058</v>
+        <v>0.1765974195935485</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06603943119841915</v>
+        <v>0.01578802188787876</v>
       </c>
       <c r="E24">
-        <v>0.01577770938127809</v>
+        <v>0.07215542745558778</v>
       </c>
       <c r="F24">
-        <v>4.372260958622775</v>
+        <v>1.391915419734318</v>
       </c>
       <c r="G24">
-        <v>4.969985703550037</v>
+        <v>1.435555031614797</v>
       </c>
       <c r="H24">
-        <v>2.346529434753052</v>
+        <v>0.9250088880136218</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.774112585240218</v>
+        <v>1.387491536287854</v>
       </c>
       <c r="N24">
-        <v>2.235301427713466</v>
+        <v>1.480249562955152</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3213788381779779</v>
+        <v>0.1568371918552316</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05053797588555398</v>
+        <v>0.01300666510171311</v>
       </c>
       <c r="E25">
-        <v>0.0211456373586083</v>
+        <v>0.07557526015544447</v>
       </c>
       <c r="F25">
-        <v>3.454332519575132</v>
+        <v>1.201366875987105</v>
       </c>
       <c r="G25">
-        <v>3.916309467835447</v>
+        <v>1.212193047296438</v>
       </c>
       <c r="H25">
-        <v>1.861392641184551</v>
+        <v>0.831341337919838</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.841973540090848</v>
+        <v>1.145077469469825</v>
       </c>
       <c r="N25">
-        <v>1.981934586155347</v>
+        <v>1.401573705942781</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424986629922103</v>
+        <v>0.2709126950407068</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01099854060988292</v>
+        <v>0.04031016672976762</v>
       </c>
       <c r="E2">
-        <v>0.07835222606900327</v>
+        <v>0.02566514044339829</v>
       </c>
       <c r="F2">
-        <v>1.063950388120105</v>
+        <v>2.824671407392856</v>
       </c>
       <c r="G2">
-        <v>1.050397112036137</v>
+        <v>3.19360316982258</v>
       </c>
       <c r="H2">
-        <v>0.7645655513645124</v>
+        <v>1.530313895270581</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9667229984368362</v>
+        <v>3.181098715853111</v>
       </c>
       <c r="N2">
-        <v>1.345383587036309</v>
+        <v>1.800462236892088</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329151440306902</v>
+        <v>0.2370345113327375</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.009659313430020688</v>
+        <v>0.0338885231770476</v>
       </c>
       <c r="E3">
-        <v>0.08039564552838119</v>
+        <v>0.02904607676610116</v>
       </c>
       <c r="F3">
-        <v>0.9725066926833534</v>
+        <v>2.418293025717006</v>
       </c>
       <c r="G3">
-        <v>0.942272679903482</v>
+        <v>2.727066693340248</v>
       </c>
       <c r="H3">
-        <v>0.7206173081418115</v>
+        <v>1.317554851680569</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8458850692355213</v>
+        <v>2.743839619336228</v>
       </c>
       <c r="N3">
-        <v>1.308409149654665</v>
+        <v>1.680270167891337</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1270977887459424</v>
+        <v>0.2163672590141772</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.008846725707257974</v>
+        <v>0.0301366008299766</v>
       </c>
       <c r="E4">
-        <v>0.08172991297474841</v>
+        <v>0.03126920834087787</v>
       </c>
       <c r="F4">
-        <v>0.9171550594140285</v>
+        <v>2.176535316513736</v>
       </c>
       <c r="G4">
-        <v>0.876593798487022</v>
+        <v>2.449426219565851</v>
       </c>
       <c r="H4">
-        <v>0.6942582471556022</v>
+        <v>1.191393329259938</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.771693125926376</v>
+        <v>2.47919600799014</v>
       </c>
       <c r="N4">
-        <v>1.286260518814828</v>
+        <v>1.607741699734945</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247442048677527</v>
+        <v>0.2079755542915649</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008517889251933752</v>
+        <v>0.02864795412027377</v>
       </c>
       <c r="E5">
-        <v>0.08229364610825041</v>
+        <v>0.0322109120255325</v>
       </c>
       <c r="F5">
-        <v>0.8947939911865177</v>
+        <v>2.079673971070363</v>
       </c>
       <c r="G5">
-        <v>0.8500019031600345</v>
+        <v>2.338159123650257</v>
       </c>
       <c r="H5">
-        <v>0.6836714243439133</v>
+        <v>1.140943946917787</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7414586268383232</v>
+        <v>2.372135907246616</v>
       </c>
       <c r="N5">
-        <v>1.277375529124143</v>
+        <v>1.578491095471222</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243544287756464</v>
+        <v>0.2065838585711077</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00846342103194786</v>
+        <v>0.02840299151143455</v>
       </c>
       <c r="E6">
-        <v>0.08238846180226389</v>
+        <v>0.0323694069046061</v>
       </c>
       <c r="F6">
-        <v>0.891092602215636</v>
+        <v>2.06368232658032</v>
       </c>
       <c r="G6">
-        <v>0.8455966083115811</v>
+        <v>2.319787201846964</v>
       </c>
       <c r="H6">
-        <v>0.6819227609746576</v>
+        <v>1.132620605883602</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7364381292003088</v>
+        <v>2.354401174512276</v>
       </c>
       <c r="N6">
-        <v>1.275908729091128</v>
+        <v>1.573652110946199</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270659782516219</v>
+        <v>0.2162539668562431</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008842281776360039</v>
+        <v>0.03011637078233775</v>
       </c>
       <c r="E7">
-        <v>0.08173743467305616</v>
+        <v>0.03128176525545179</v>
       </c>
       <c r="F7">
-        <v>0.9168527062552414</v>
+        <v>2.175222666179963</v>
       </c>
       <c r="G7">
-        <v>0.8762344788380005</v>
+        <v>2.447918470312516</v>
       </c>
       <c r="H7">
-        <v>0.6941148464769924</v>
+        <v>1.190709255105162</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.771285377522787</v>
+        <v>2.477749204597828</v>
       </c>
       <c r="N7">
-        <v>1.286140120814153</v>
+        <v>1.607345997158333</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391804819419917</v>
+        <v>0.2592015710233113</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01053467589823498</v>
+        <v>0.03805135722303277</v>
       </c>
       <c r="E8">
-        <v>0.07904027162168514</v>
+        <v>0.02679952391859874</v>
       </c>
       <c r="F8">
-        <v>1.032252643382918</v>
+        <v>2.682752782302657</v>
       </c>
       <c r="G8">
-        <v>1.012964948236231</v>
+        <v>3.030692081033465</v>
       </c>
       <c r="H8">
-        <v>0.749280856065667</v>
+        <v>1.45592201954841</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.92505653164676</v>
+        <v>3.029420079783065</v>
       </c>
       <c r="N8">
-        <v>1.332520729380633</v>
+        <v>1.758747570205855</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1634609971099081</v>
+        <v>0.3446528705654828</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01393697086607659</v>
+        <v>0.0555400204986185</v>
       </c>
       <c r="E9">
-        <v>0.07438304367712689</v>
+        <v>0.01924391809624826</v>
       </c>
       <c r="F9">
-        <v>1.265090107237711</v>
+        <v>3.755071148185067</v>
       </c>
       <c r="G9">
-        <v>1.287000617929607</v>
+        <v>4.261487068539481</v>
       </c>
       <c r="H9">
-        <v>0.8625448244238783</v>
+        <v>2.020040684335953</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.226707465036256</v>
+        <v>4.15121013349345</v>
       </c>
       <c r="N9">
-        <v>1.427808475257649</v>
+        <v>2.066438187516098</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.181611468663931</v>
+        <v>0.4084438374773498</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01649687273585698</v>
+        <v>0.07026768430672092</v>
       </c>
       <c r="E10">
-        <v>0.07134699480116957</v>
+        <v>0.01455451018425791</v>
       </c>
       <c r="F10">
-        <v>1.440479211173226</v>
+        <v>4.615749758241066</v>
       </c>
       <c r="G10">
-        <v>1.492338520280271</v>
+        <v>5.249560078438435</v>
       </c>
       <c r="H10">
-        <v>0.9490383187026623</v>
+        <v>2.475637969434672</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.44853350833678</v>
+        <v>5.01578992807994</v>
       </c>
       <c r="N10">
-        <v>1.500390354605315</v>
+        <v>2.300208736191081</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1899347012111008</v>
+        <v>0.4377480300770742</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01767658116322934</v>
+        <v>0.07758176197886968</v>
       </c>
       <c r="E11">
-        <v>0.07004964879288167</v>
+        <v>0.01263922067486156</v>
       </c>
       <c r="F11">
-        <v>1.521282223839165</v>
+        <v>5.030493390520917</v>
       </c>
       <c r="G11">
-        <v>1.586710997141779</v>
+        <v>5.725877870955401</v>
       </c>
       <c r="H11">
-        <v>0.9891383724448701</v>
+        <v>2.69591729689995</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.549524306988843</v>
+        <v>5.422477475960576</v>
       </c>
       <c r="N11">
-        <v>1.533954996273195</v>
+        <v>2.408518030795932</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.193095882340927</v>
+        <v>0.4488917516830355</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01812565882629258</v>
+        <v>0.08046219441180114</v>
       </c>
       <c r="E12">
-        <v>0.06957043605755331</v>
+        <v>0.01194854795660483</v>
       </c>
       <c r="F12">
-        <v>1.55203244377887</v>
+        <v>5.191668769307853</v>
       </c>
       <c r="G12">
-        <v>1.622592937645095</v>
+        <v>5.911023381310315</v>
       </c>
       <c r="H12">
-        <v>1.004434751645817</v>
+        <v>2.781638889602505</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.587780785270041</v>
+        <v>5.578893004856354</v>
       </c>
       <c r="N12">
-        <v>1.546742393132575</v>
+        <v>2.449841175182115</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1924146527230732</v>
+        <v>0.446489567417629</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01802883488264229</v>
+        <v>0.07983649988858588</v>
       </c>
       <c r="E13">
-        <v>0.06967310624024137</v>
+        <v>0.01209569833016388</v>
       </c>
       <c r="F13">
-        <v>1.545402989834372</v>
+        <v>5.156759122417725</v>
       </c>
       <c r="G13">
-        <v>1.614858558290223</v>
+        <v>5.870919836881967</v>
       </c>
       <c r="H13">
-        <v>1.001135401981685</v>
+        <v>2.763066661409141</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.579540940264593</v>
+        <v>5.5450899073805</v>
       </c>
       <c r="N13">
-        <v>1.543984987646382</v>
+        <v>2.440927316772871</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1901945872134405</v>
+        <v>0.4386638557501072</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01771347905939535</v>
+        <v>0.07781636938041459</v>
       </c>
       <c r="E14">
-        <v>0.07000998178313722</v>
+        <v>0.0125816839626367</v>
       </c>
       <c r="F14">
-        <v>1.523808987087392</v>
+        <v>5.043665686074178</v>
       </c>
       <c r="G14">
-        <v>1.589660078977886</v>
+        <v>5.741008240962174</v>
       </c>
       <c r="H14">
-        <v>0.9903945657226245</v>
+        <v>2.702920603909035</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.552671410230403</v>
+        <v>5.435294356585217</v>
       </c>
       <c r="N14">
-        <v>1.535005484103294</v>
+        <v>2.411911362577797</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1888359449413173</v>
+        <v>0.4338766687019273</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01752062512360197</v>
+        <v>0.07659416159823706</v>
       </c>
       <c r="E15">
-        <v>0.07021789943411605</v>
+        <v>0.01288397917265804</v>
       </c>
       <c r="F15">
-        <v>1.510601981363607</v>
+        <v>4.974955556158108</v>
       </c>
       <c r="G15">
-        <v>1.574244381763094</v>
+        <v>5.662086038934319</v>
       </c>
       <c r="H15">
-        <v>0.9838300848833796</v>
+        <v>2.666394313206013</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.536214854247476</v>
+        <v>5.368371814622975</v>
       </c>
       <c r="N15">
-        <v>1.529515289998784</v>
+        <v>2.394179288041727</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1810688460488024</v>
+        <v>0.4065349643157248</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01642009562475266</v>
+        <v>0.06980385144034784</v>
       </c>
       <c r="E16">
-        <v>0.07143346658254046</v>
+        <v>0.01468432898219252</v>
       </c>
       <c r="F16">
-        <v>1.435219492688844</v>
+        <v>4.589175536981287</v>
       </c>
       <c r="G16">
-        <v>1.486191002864757</v>
+        <v>5.219045382926083</v>
       </c>
       <c r="H16">
-        <v>0.9464331057195068</v>
+        <v>2.461539244495896</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.441935304995027</v>
+        <v>4.989520524613781</v>
       </c>
       <c r="N16">
-        <v>1.49820770606965</v>
+        <v>2.293172189777351</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1763208645652838</v>
+        <v>0.3898387381229043</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0157489632180372</v>
+        <v>0.06580992393631391</v>
       </c>
       <c r="E17">
-        <v>0.07220064535735737</v>
+        <v>0.01584673240181012</v>
       </c>
       <c r="F17">
-        <v>1.389239325280101</v>
+        <v>4.358963860580531</v>
       </c>
       <c r="G17">
-        <v>1.432424486907053</v>
+        <v>4.954719143052984</v>
       </c>
       <c r="H17">
-        <v>0.9236864159461788</v>
+        <v>2.339483475269617</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.38411986668325</v>
+        <v>4.760850245113588</v>
       </c>
       <c r="N17">
-        <v>1.479140534930906</v>
+        <v>2.231728758835857</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1735962221262071</v>
+        <v>0.3802619845991728</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01536436605358915</v>
+        <v>0.06356894370118482</v>
       </c>
       <c r="E18">
-        <v>0.07264978977537062</v>
+        <v>0.01653560063334414</v>
       </c>
       <c r="F18">
-        <v>1.362888195790475</v>
+        <v>4.228681955079111</v>
       </c>
       <c r="G18">
-        <v>1.401589670192777</v>
+        <v>4.805146904082648</v>
       </c>
       <c r="H18">
-        <v>0.9106738848543614</v>
+        <v>2.270475512799806</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.350873469207826</v>
+        <v>4.630550497068512</v>
       </c>
       <c r="N18">
-        <v>1.468225151936082</v>
+        <v>2.196571436031178</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1726747883934081</v>
+        <v>0.377023840742055</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01523438712256819</v>
+        <v>0.06281924271869599</v>
       </c>
       <c r="E19">
-        <v>0.07280321580784932</v>
+        <v>0.01677223425029783</v>
       </c>
       <c r="F19">
-        <v>1.353982382094443</v>
+        <v>4.18491535538908</v>
       </c>
       <c r="G19">
-        <v>1.391164833777196</v>
+        <v>4.754902285767514</v>
       </c>
       <c r="H19">
-        <v>0.9062801293958671</v>
+        <v>2.247304170266773</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.339618046964461</v>
+        <v>4.586630536310849</v>
       </c>
       <c r="N19">
-        <v>1.464538288493685</v>
+        <v>2.184698507846036</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1768256477894568</v>
+        <v>0.3916132998874815</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01582025823071831</v>
+        <v>0.0662291200047207</v>
       </c>
       <c r="E20">
-        <v>0.07211816182762831</v>
+        <v>0.01572087159841917</v>
       </c>
       <c r="F20">
-        <v>1.394124074435268</v>
+        <v>4.383244730254802</v>
       </c>
       <c r="G20">
-        <v>1.438138635056646</v>
+        <v>4.982596394632793</v>
       </c>
       <c r="H20">
-        <v>0.9261004948243396</v>
+        <v>2.352349969537443</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.390273628336004</v>
+        <v>4.785062576208617</v>
       </c>
       <c r="N20">
-        <v>1.481164943113555</v>
+        <v>2.238250365191419</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1908464220682902</v>
+        <v>0.4409611352877789</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0178060416842527</v>
+        <v>0.07840651909542373</v>
       </c>
       <c r="E21">
-        <v>0.06991070570480495</v>
+        <v>0.01243796964513333</v>
       </c>
       <c r="F21">
-        <v>1.530147502699947</v>
+        <v>5.076765016756241</v>
       </c>
       <c r="G21">
-        <v>1.597057490987254</v>
+        <v>5.779028532190409</v>
       </c>
       <c r="H21">
-        <v>0.993546363445148</v>
+        <v>2.720520416653414</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.560563262628904</v>
+        <v>5.467474085842213</v>
       </c>
       <c r="N21">
-        <v>1.537640898175027</v>
+        <v>2.420425449146052</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2000642324690318</v>
+        <v>0.4734891720346042</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01911762763781866</v>
+        <v>0.08702540222982691</v>
       </c>
       <c r="E22">
-        <v>0.06853833316785796</v>
+        <v>0.01049614644042229</v>
       </c>
       <c r="F22">
-        <v>1.619934551999052</v>
+        <v>5.55454149544039</v>
       </c>
       <c r="G22">
-        <v>1.701769247391212</v>
+        <v>6.327957608188967</v>
       </c>
       <c r="H22">
-        <v>1.038276646083148</v>
+        <v>2.974863473280323</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.671936697119889</v>
+        <v>5.927839555470001</v>
       </c>
       <c r="N22">
-        <v>1.5750005077509</v>
+        <v>2.541301464071381</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1951396023207934</v>
+        <v>0.4561009429832694</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01841629586508731</v>
+        <v>0.0823560038256872</v>
       </c>
       <c r="E23">
-        <v>0.06926435293083699</v>
+        <v>0.01151262866731706</v>
       </c>
       <c r="F23">
-        <v>1.571930415973327</v>
+        <v>5.296992361397457</v>
       </c>
       <c r="G23">
-        <v>1.64580270111469</v>
+        <v>6.032024405723291</v>
       </c>
       <c r="H23">
-        <v>1.014342732873843</v>
+        <v>2.837689883409496</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.61248672633721</v>
+        <v>5.680627540140449</v>
       </c>
       <c r="N23">
-        <v>1.555020335565416</v>
+        <v>2.476612251903958</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1765974195935485</v>
+        <v>0.3908109520167784</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01578802188787876</v>
+        <v>0.06603943119862521</v>
       </c>
       <c r="E24">
-        <v>0.07215542745558778</v>
+        <v>0.01577770938129763</v>
       </c>
       <c r="F24">
-        <v>1.391915419734318</v>
+        <v>4.372260958622803</v>
       </c>
       <c r="G24">
-        <v>1.435555031614797</v>
+        <v>4.969985703550037</v>
       </c>
       <c r="H24">
-        <v>0.9250088880136218</v>
+        <v>2.346529434752938</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.387491536287854</v>
+        <v>4.774112585240204</v>
       </c>
       <c r="N24">
-        <v>1.480249562955152</v>
+        <v>2.235301427713466</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1568371918552316</v>
+        <v>0.3213788381779636</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01300666510171311</v>
+        <v>0.05053797588529108</v>
       </c>
       <c r="E25">
-        <v>0.07557526015544447</v>
+        <v>0.02114563735860742</v>
       </c>
       <c r="F25">
-        <v>1.201366875987105</v>
+        <v>3.454332519575217</v>
       </c>
       <c r="G25">
-        <v>1.212193047296438</v>
+        <v>3.916309467835504</v>
       </c>
       <c r="H25">
-        <v>0.831341337919838</v>
+        <v>1.861392641184665</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.145077469469825</v>
+        <v>3.841973540090876</v>
       </c>
       <c r="N25">
-        <v>1.401573705942781</v>
+        <v>1.981934586155376</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2709126950407068</v>
+        <v>0.3874258866766809</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04031016672976762</v>
+        <v>0.1118467792095998</v>
       </c>
       <c r="E2">
-        <v>0.02566514044339829</v>
+        <v>0.09915953834628422</v>
       </c>
       <c r="F2">
-        <v>2.824671407392856</v>
+        <v>2.827719198926133</v>
       </c>
       <c r="G2">
-        <v>3.19360316982258</v>
+        <v>2.980679185492363</v>
       </c>
       <c r="H2">
-        <v>1.530313895270581</v>
+        <v>0.01270004209786296</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006148047357745767</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.564103092885404</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3144923037934078</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1301489509298568</v>
       </c>
       <c r="M2">
-        <v>3.181098715853111</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.800462236892088</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.7717950184757</v>
+      </c>
+      <c r="P2">
+        <v>1.632455358203416</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2370345113327375</v>
+        <v>0.3377079767005995</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0338885231770476</v>
+        <v>0.1013006622892831</v>
       </c>
       <c r="E3">
-        <v>0.02904607676610116</v>
+        <v>0.09077807355246126</v>
       </c>
       <c r="F3">
-        <v>2.418293025717006</v>
+        <v>2.505138785773156</v>
       </c>
       <c r="G3">
-        <v>2.727066693340248</v>
+        <v>2.609488067508238</v>
       </c>
       <c r="H3">
-        <v>1.317554851680569</v>
+        <v>0.007139665101681458</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007006330721715859</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.392264957136348</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3125362822357083</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1189860602973816</v>
       </c>
       <c r="M3">
-        <v>2.743839619336228</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.680270167891337</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.411428986218993</v>
+      </c>
+      <c r="P3">
+        <v>1.540481241833248</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2163672590141772</v>
+        <v>0.3066433131720174</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0301366008299766</v>
+        <v>0.09493405959054257</v>
       </c>
       <c r="E4">
-        <v>0.03126920834087787</v>
+        <v>0.08571567960042703</v>
       </c>
       <c r="F4">
-        <v>2.176535316513736</v>
+        <v>2.310365487684578</v>
       </c>
       <c r="G4">
-        <v>2.449426219565851</v>
+        <v>2.385286635209269</v>
       </c>
       <c r="H4">
-        <v>1.191393329259938</v>
+        <v>0.00445973047584769</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00760938790498189</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.288700307421919</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3118143021788136</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1122357494029952</v>
       </c>
       <c r="M4">
-        <v>2.47919600799014</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.607741699734945</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>2.19142422510113</v>
+      </c>
+      <c r="P4">
+        <v>1.485251659640412</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2079755542915649</v>
+        <v>0.2927988763545528</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02864795412027377</v>
+        <v>0.09236717137787309</v>
       </c>
       <c r="E5">
-        <v>0.0322109120255325</v>
+        <v>0.08366506942079255</v>
       </c>
       <c r="F5">
-        <v>2.079673971070363</v>
+        <v>2.231315601505671</v>
       </c>
       <c r="G5">
-        <v>2.338159123650257</v>
+        <v>2.29435989468098</v>
       </c>
       <c r="H5">
-        <v>1.140943946917787</v>
+        <v>0.003535155470336671</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00795669608772176</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.246738528240911</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3121152205998463</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1094796407829361</v>
       </c>
       <c r="M5">
-        <v>2.372135907246616</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.578491095471222</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>2.103300093066508</v>
+      </c>
+      <c r="P5">
+        <v>1.46488652941359</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2065838585711077</v>
+        <v>0.2892045919556523</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02840299151143455</v>
+        <v>0.09195033631558402</v>
       </c>
       <c r="E6">
-        <v>0.0323694069046061</v>
+        <v>0.08332240489368647</v>
       </c>
       <c r="F6">
-        <v>2.06368232658032</v>
+        <v>2.217742083625311</v>
       </c>
       <c r="G6">
-        <v>2.319787201846964</v>
+        <v>2.278854709781797</v>
       </c>
       <c r="H6">
-        <v>1.132620605883602</v>
+        <v>0.003391574099408157</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.008124238734557032</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.239565687429604</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3127605597589778</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1089949361976166</v>
       </c>
       <c r="M6">
-        <v>2.354401174512276</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.573652110946199</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>2.090231138323489</v>
+      </c>
+      <c r="P6">
+        <v>1.463778504733313</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2162539668562431</v>
+        <v>0.3029270688977022</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03011637078233775</v>
+        <v>0.09492216377586971</v>
       </c>
       <c r="E7">
-        <v>0.03128176525545179</v>
+        <v>0.08567998701936652</v>
       </c>
       <c r="F7">
-        <v>2.175222666179963</v>
+        <v>2.307964133274268</v>
       </c>
       <c r="G7">
-        <v>2.447918470312516</v>
+        <v>2.382822193994684</v>
       </c>
       <c r="H7">
-        <v>1.190709255105162</v>
+        <v>0.004447680237991469</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007895645276694729</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.287506473682527</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.313433952754437</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1121218630955488</v>
       </c>
       <c r="M7">
-        <v>2.477749204597828</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.607345997158333</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2.194472362752407</v>
+      </c>
+      <c r="P7">
+        <v>1.491171483280866</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2592015710233113</v>
+        <v>0.3656861282802595</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03805135722303277</v>
+        <v>0.1082140867060133</v>
       </c>
       <c r="E8">
-        <v>0.02679952391859874</v>
+        <v>0.09623682336704942</v>
       </c>
       <c r="F8">
-        <v>2.682752782302657</v>
+        <v>2.713980001550112</v>
       </c>
       <c r="G8">
-        <v>3.030692081033465</v>
+        <v>2.850207258895836</v>
       </c>
       <c r="H8">
-        <v>1.45592201954841</v>
+        <v>0.01062201665420266</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006770647297367205</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.503584432251927</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3159094307649752</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1261689954124258</v>
       </c>
       <c r="M8">
-        <v>3.029420079783065</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.758747570205855</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.652879038957494</v>
+      </c>
+      <c r="P8">
+        <v>1.608847329887169</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3446528705654828</v>
+        <v>0.490706469591629</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0555400204986185</v>
+        <v>0.1354361417308709</v>
       </c>
       <c r="E9">
-        <v>0.01924391809624826</v>
+        <v>0.1179416345830235</v>
       </c>
       <c r="F9">
-        <v>3.755071148185067</v>
+        <v>3.544044712251093</v>
       </c>
       <c r="G9">
-        <v>4.261487068539481</v>
+        <v>3.804740798409114</v>
       </c>
       <c r="H9">
-        <v>2.020040684335953</v>
+        <v>0.0294096548910936</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004759383203160716</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.946855919676835</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3217034785354613</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1551121737562726</v>
       </c>
       <c r="M9">
-        <v>4.15121013349345</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2.066438187516098</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.556845178189775</v>
+      </c>
+      <c r="P9">
+        <v>1.838502356572633</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4084438374773498</v>
+        <v>0.5790782978003506</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07026768430672092</v>
+        <v>0.1579758209041486</v>
       </c>
       <c r="E10">
-        <v>0.01455451018425791</v>
+        <v>0.135653632571155</v>
       </c>
       <c r="F10">
-        <v>4.615749758241066</v>
+        <v>4.129990532193887</v>
       </c>
       <c r="G10">
-        <v>5.249560078438435</v>
+        <v>4.488641112296193</v>
       </c>
       <c r="H10">
-        <v>2.475637969434672</v>
+        <v>0.04786003813298567</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003864919718705728</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2.264314698222904</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3309651319240636</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1764466503456021</v>
       </c>
       <c r="M10">
-        <v>5.01578992807994</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.300208736191081</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>4.186818422206414</v>
+      </c>
+      <c r="P10">
+        <v>2.027840511756636</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4377480300770742</v>
+        <v>0.6237866490631916</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07758176197886968</v>
+        <v>0.1807748537532134</v>
       </c>
       <c r="E11">
-        <v>0.01263922067486156</v>
+        <v>0.1551178575063368</v>
       </c>
       <c r="F11">
-        <v>5.030493390520917</v>
+        <v>3.962865813991982</v>
       </c>
       <c r="G11">
-        <v>5.725877870955401</v>
+        <v>4.385982078602353</v>
       </c>
       <c r="H11">
-        <v>2.69591729689995</v>
+        <v>0.06841709179164823</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004122164725870903</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.205316772373294</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3531600626432798</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.186548209253008</v>
       </c>
       <c r="M11">
-        <v>5.422477475960576</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2.408518030795932</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>4.066336300139</v>
+      </c>
+      <c r="P11">
+        <v>2.221455205378732</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4488917516830355</v>
+        <v>0.6493830650027235</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08046219441180114</v>
+        <v>0.1965991182256488</v>
       </c>
       <c r="E12">
-        <v>0.01194854795660483</v>
+        <v>0.174942344222611</v>
       </c>
       <c r="F12">
-        <v>5.191668769307853</v>
+        <v>3.701478934476768</v>
       </c>
       <c r="G12">
-        <v>5.911023381310315</v>
+        <v>4.155764971212136</v>
       </c>
       <c r="H12">
-        <v>2.781638889602505</v>
+        <v>0.1055250423290843</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004048300278603811</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.088559061821627</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3677357020004095</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2064094109786225</v>
       </c>
       <c r="M12">
-        <v>5.578893004856354</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.449841175182115</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>3.826382423110815</v>
+      </c>
+      <c r="P12">
+        <v>2.338357714688414</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.446489567417629</v>
+        <v>0.6559761211146338</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07983649988858588</v>
+        <v>0.2076677230600694</v>
       </c>
       <c r="E13">
-        <v>0.01209569833016388</v>
+        <v>0.1957374123856717</v>
       </c>
       <c r="F13">
-        <v>5.156759122417725</v>
+        <v>3.352683842527568</v>
       </c>
       <c r="G13">
-        <v>5.870919836881967</v>
+        <v>3.813986785400402</v>
       </c>
       <c r="H13">
-        <v>2.763066661409141</v>
+        <v>0.1568835833865876</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004116929302711014</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.920462578602269</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3796813423628365</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2342887653477277</v>
       </c>
       <c r="M13">
-        <v>5.5450899073805</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.440927316772871</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>3.490269320489546</v>
+      </c>
+      <c r="P13">
+        <v>2.411511531527651</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4386638557501072</v>
+        <v>0.6508224821870385</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07781636938041459</v>
+        <v>0.2133638626812342</v>
       </c>
       <c r="E14">
-        <v>0.0125816839626367</v>
+        <v>0.2114875137124166</v>
       </c>
       <c r="F14">
-        <v>5.043665686074178</v>
+        <v>3.072690304437998</v>
       </c>
       <c r="G14">
-        <v>5.741008240962174</v>
+        <v>3.52775554989816</v>
       </c>
       <c r="H14">
-        <v>2.702920603909035</v>
+        <v>0.2021470642255991</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.004318693978230037</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.781193640007018</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3874566332130698</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2592518672274338</v>
       </c>
       <c r="M14">
-        <v>5.435294356585217</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2.411911362577797</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>3.216091714277695</v>
+      </c>
+      <c r="P14">
+        <v>2.444927828742578</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4338766687019273</v>
+        <v>0.6438618684062192</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07659416159823706</v>
+        <v>0.2135363312440717</v>
       </c>
       <c r="E15">
-        <v>0.01288397917265804</v>
+        <v>0.2145661127316529</v>
       </c>
       <c r="F15">
-        <v>4.974955556158108</v>
+        <v>2.986017419371933</v>
       </c>
       <c r="G15">
-        <v>5.662086038934319</v>
+        <v>3.434731463816917</v>
       </c>
       <c r="H15">
-        <v>2.666394313206013</v>
+        <v>0.2129830400224506</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004525824700380099</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.736591384986184</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3895293695543174</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2649462058896574</v>
       </c>
       <c r="M15">
-        <v>5.368371814622975</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.394179288041727</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>3.130849493373532</v>
+      </c>
+      <c r="P15">
+        <v>2.446009655202658</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4065349643157248</v>
+        <v>0.6020245106358004</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06980385144034784</v>
+        <v>0.2007546294473883</v>
       </c>
       <c r="E16">
-        <v>0.01468432898219252</v>
+        <v>0.201740613265887</v>
       </c>
       <c r="F16">
-        <v>4.589175536981287</v>
+        <v>2.813608675764755</v>
       </c>
       <c r="G16">
-        <v>5.219045382926083</v>
+        <v>3.217619508526639</v>
       </c>
       <c r="H16">
-        <v>2.461539244495896</v>
+        <v>0.193213663269546</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0050376894227675</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.637668712434987</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3832207203923659</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2491539633840176</v>
       </c>
       <c r="M16">
-        <v>4.989520524613781</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.293172189777351</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>2.942266798955373</v>
+      </c>
+      <c r="P16">
+        <v>2.34904370866181</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3898387381229043</v>
+        <v>0.5725859975473782</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06580992393631391</v>
+        <v>0.1879879045684589</v>
       </c>
       <c r="E17">
-        <v>0.01584673240181012</v>
+        <v>0.183136880703632</v>
       </c>
       <c r="F17">
-        <v>4.358963860580531</v>
+        <v>2.828089380692035</v>
       </c>
       <c r="G17">
-        <v>4.954719143052984</v>
+        <v>3.201593776768419</v>
       </c>
       <c r="H17">
-        <v>2.339483475269617</v>
+        <v>0.1522280160045142</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005350512177171751</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.635099091092457</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3744607289735598</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2226364288111569</v>
       </c>
       <c r="M17">
-        <v>4.760850245113588</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.231728758835857</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>2.941140951509922</v>
+      </c>
+      <c r="P17">
+        <v>2.257863603872579</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3802619845991728</v>
+        <v>0.5538936243248997</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06356894370118482</v>
+        <v>0.1742632458221749</v>
       </c>
       <c r="E18">
-        <v>0.01653560063334414</v>
+        <v>0.1606029974430712</v>
       </c>
       <c r="F18">
-        <v>4.228681955079111</v>
+        <v>3.007603561401794</v>
       </c>
       <c r="G18">
-        <v>4.805146904082648</v>
+        <v>3.357850006078621</v>
       </c>
       <c r="H18">
-        <v>2.270475512799806</v>
+        <v>0.09919181453569337</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005206953337206777</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.715525995128502</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3610315615099218</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1910726036547885</v>
       </c>
       <c r="M18">
-        <v>4.630550497068512</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.196571436031178</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>3.100068507720636</v>
+      </c>
+      <c r="P18">
+        <v>2.156304171287047</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.377023840742055</v>
+        <v>0.5384093506597196</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06281924271869599</v>
+        <v>0.1616610903197824</v>
       </c>
       <c r="E19">
-        <v>0.01677223425029783</v>
+        <v>0.14143350538051</v>
       </c>
       <c r="F19">
-        <v>4.18491535538908</v>
+        <v>3.311973886637332</v>
       </c>
       <c r="G19">
-        <v>4.754902285767514</v>
+        <v>3.644915988072654</v>
       </c>
       <c r="H19">
-        <v>2.247304170266773</v>
+        <v>0.05676495589065667</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005294915226278007</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.858313109525795</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3490390057515995</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1687090398232272</v>
       </c>
       <c r="M19">
-        <v>4.586630536310849</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.184698507846036</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>3.390142410725346</v>
+      </c>
+      <c r="P19">
+        <v>2.069373450925468</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3916132998874815</v>
+        <v>0.544918764433362</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0662291200047207</v>
+        <v>0.1520608398199386</v>
       </c>
       <c r="E20">
-        <v>0.01572087159841917</v>
+        <v>0.130890830765491</v>
       </c>
       <c r="F20">
-        <v>4.383244730254802</v>
+        <v>3.967812238671883</v>
       </c>
       <c r="G20">
-        <v>4.982596394632793</v>
+        <v>4.300771765270582</v>
       </c>
       <c r="H20">
-        <v>2.352349969537443</v>
+        <v>0.04256730820507748</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004942751312235316</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.176816117678641</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.333953986190906</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.170399042457789</v>
       </c>
       <c r="M20">
-        <v>4.785062576208617</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.238250365191419</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>4.03192989520943</v>
+      </c>
+      <c r="P20">
+        <v>1.998760365145557</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4409611352877789</v>
+        <v>0.612221701946055</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07840651909542373</v>
+        <v>0.1679830896460572</v>
       </c>
       <c r="E21">
-        <v>0.01243796964513333</v>
+        <v>0.1440049459354427</v>
       </c>
       <c r="F21">
-        <v>5.076765016756241</v>
+        <v>4.508175251039916</v>
       </c>
       <c r="G21">
-        <v>5.779028532190409</v>
+        <v>4.91449746528798</v>
       </c>
       <c r="H21">
-        <v>2.720520416653414</v>
+        <v>0.06006027435102901</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004188723857370569</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.464161567596022</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3383870359121914</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1895733165600011</v>
       </c>
       <c r="M21">
-        <v>5.467474085842213</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.420425449146052</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.591906544585953</v>
+      </c>
+      <c r="P21">
+        <v>2.125983262034993</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4734891720346042</v>
+        <v>0.6608762205637504</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08702540222982691</v>
+        <v>0.1794414575023993</v>
       </c>
       <c r="E22">
-        <v>0.01049614644042229</v>
+        <v>0.1533303922522276</v>
       </c>
       <c r="F22">
-        <v>5.55454149544039</v>
+        <v>4.84545421334127</v>
       </c>
       <c r="G22">
-        <v>6.327957608188967</v>
+        <v>5.302119264160751</v>
       </c>
       <c r="H22">
-        <v>2.974863473280323</v>
+        <v>0.0725818991453373</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003446124852322541</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2.645346744968322</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3402802555575128</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2020764802963919</v>
       </c>
       <c r="M22">
-        <v>5.927839555470001</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.541301464071381</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.931586087808228</v>
+      </c>
+      <c r="P22">
+        <v>2.207223580639123</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4561009429832694</v>
+        <v>0.639203686875419</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0823560038256872</v>
+        <v>0.1732541611362919</v>
       </c>
       <c r="E23">
-        <v>0.01151262866731706</v>
+        <v>0.148326644432081</v>
       </c>
       <c r="F23">
-        <v>5.296992361397457</v>
+        <v>4.666189495048229</v>
       </c>
       <c r="G23">
-        <v>6.032024405723291</v>
+        <v>5.095738690090343</v>
       </c>
       <c r="H23">
-        <v>2.837689883409496</v>
+        <v>0.06574504341828025</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003501935988824201</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2.54891081218841</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3371019225374177</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1954531800195287</v>
       </c>
       <c r="M23">
-        <v>5.680627540140449</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.476612251903958</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.744849952009957</v>
+      </c>
+      <c r="P23">
+        <v>2.15582792159185</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3908109520167784</v>
+        <v>0.5493495776334214</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06603943119862521</v>
+        <v>0.150768833123756</v>
       </c>
       <c r="E24">
-        <v>0.01577770938129763</v>
+        <v>0.1301814315580012</v>
       </c>
       <c r="F24">
-        <v>4.372260958622803</v>
+        <v>4.001467369522857</v>
       </c>
       <c r="G24">
-        <v>4.969985703550037</v>
+        <v>4.331239355222095</v>
       </c>
       <c r="H24">
-        <v>2.346529434752938</v>
+        <v>0.04288553494344027</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004402762823142226</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2.192044844336067</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3294080765654037</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1712921718437825</v>
       </c>
       <c r="M24">
-        <v>4.774112585240204</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.235301427713466</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>4.053023329825137</v>
+      </c>
+      <c r="P24">
+        <v>1.976359215848987</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3213788381779636</v>
+        <v>0.4509144684536608</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05053797588529108</v>
+        <v>0.1279341104721823</v>
       </c>
       <c r="E25">
-        <v>0.02114563735860742</v>
+        <v>0.1118976613350888</v>
       </c>
       <c r="F25">
-        <v>3.454332519575217</v>
+        <v>3.312906580507047</v>
       </c>
       <c r="G25">
-        <v>3.916309467835504</v>
+        <v>3.539495739561261</v>
       </c>
       <c r="H25">
-        <v>1.861392641184665</v>
+        <v>0.02348893707558131</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005715725263973681</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.823387558600928</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3228084601677033</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1469345643601923</v>
       </c>
       <c r="M25">
-        <v>3.841973540090876</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.981934586155376</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>3.31827910708833</v>
+      </c>
+      <c r="P25">
+        <v>1.786952892719938</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3874258866766809</v>
+        <v>0.4661147902322114</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1118467792095998</v>
+        <v>0.1012104131551581</v>
       </c>
       <c r="E2">
-        <v>0.09915953834628422</v>
+        <v>0.0907970800468032</v>
       </c>
       <c r="F2">
-        <v>2.827719198926133</v>
+        <v>2.860195285615418</v>
       </c>
       <c r="G2">
-        <v>2.980679185492363</v>
+        <v>2.981225101975866</v>
       </c>
       <c r="H2">
-        <v>0.01270004209786296</v>
+        <v>0.01057655241774169</v>
       </c>
       <c r="I2">
-        <v>0.006148047357745767</v>
+        <v>0.003429436937471664</v>
       </c>
       <c r="J2">
-        <v>1.564103092885404</v>
+        <v>1.65513034636993</v>
       </c>
       <c r="K2">
-        <v>0.3144923037934078</v>
+        <v>0.2598355461602146</v>
       </c>
       <c r="L2">
-        <v>0.1301489509298568</v>
+        <v>0.1097571361664915</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08991392624577266</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1225479699311025</v>
       </c>
       <c r="O2">
-        <v>2.7717950184757</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.632455358203416</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.676179914210621</v>
+      </c>
+      <c r="R2">
+        <v>1.479406330753406</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3377079767005995</v>
+        <v>0.4116285447617116</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1013006622892831</v>
+        <v>0.09217645947630615</v>
       </c>
       <c r="E3">
-        <v>0.09077807355246126</v>
+        <v>0.08359914813157765</v>
       </c>
       <c r="F3">
-        <v>2.505138785773156</v>
+        <v>2.539036391692591</v>
       </c>
       <c r="G3">
-        <v>2.609488067508238</v>
+        <v>2.60974390724877</v>
       </c>
       <c r="H3">
-        <v>0.007139665101681458</v>
+        <v>0.005773047075152249</v>
       </c>
       <c r="I3">
-        <v>0.007006330721715859</v>
+        <v>0.003922682606173122</v>
       </c>
       <c r="J3">
-        <v>1.392264957136348</v>
+        <v>1.481614774218457</v>
       </c>
       <c r="K3">
-        <v>0.3125362822357083</v>
+        <v>0.258672719476472</v>
       </c>
       <c r="L3">
-        <v>0.1189860602973816</v>
+        <v>0.1071934259020182</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09349419196944808</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.112542042362711</v>
       </c>
       <c r="O3">
-        <v>2.411428986218993</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.540481241833248</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.323794084091773</v>
+      </c>
+      <c r="R3">
+        <v>1.393822087308592</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3066433131720174</v>
+        <v>0.3774078584915799</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09493405959054257</v>
+        <v>0.08670257991953179</v>
       </c>
       <c r="E4">
-        <v>0.08571567960042703</v>
+        <v>0.07923632397362557</v>
       </c>
       <c r="F4">
-        <v>2.310365487684578</v>
+        <v>2.3445870126763</v>
       </c>
       <c r="G4">
-        <v>2.385286635209269</v>
+        <v>2.385444105688379</v>
       </c>
       <c r="H4">
-        <v>0.00445973047584769</v>
+        <v>0.003491273858230004</v>
       </c>
       <c r="I4">
-        <v>0.00760938790498189</v>
+        <v>0.004290018834152587</v>
       </c>
       <c r="J4">
-        <v>1.288700307421919</v>
+        <v>1.375978019975008</v>
       </c>
       <c r="K4">
-        <v>0.3118143021788136</v>
+        <v>0.2584321878690741</v>
       </c>
       <c r="L4">
-        <v>0.1122357494029952</v>
+        <v>0.1062755374671935</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09589439731688643</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1064703270829028</v>
       </c>
       <c r="O4">
-        <v>2.19142422510113</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.485251659640412</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.108680060630604</v>
+      </c>
+      <c r="R4">
+        <v>1.342726292639426</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2927988763545528</v>
+        <v>0.3622160689429137</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09236717137787309</v>
+        <v>0.08449187847308792</v>
       </c>
       <c r="E5">
-        <v>0.08366506942079255</v>
+        <v>0.07746532622209479</v>
       </c>
       <c r="F5">
-        <v>2.231315601505671</v>
+        <v>2.26558359466658</v>
       </c>
       <c r="G5">
-        <v>2.29435989468098</v>
+        <v>2.29453371107482</v>
       </c>
       <c r="H5">
-        <v>0.003535155470336671</v>
+        <v>0.002714257292157241</v>
       </c>
       <c r="I5">
-        <v>0.00795669608772176</v>
+        <v>0.004547583592723115</v>
       </c>
       <c r="J5">
-        <v>1.246738528240911</v>
+        <v>1.332949496833606</v>
       </c>
       <c r="K5">
-        <v>0.3121152205998463</v>
+        <v>0.2587644263663087</v>
       </c>
       <c r="L5">
-        <v>0.1094796407829361</v>
+        <v>0.1060953141883152</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09712520858453644</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1039854317791122</v>
       </c>
       <c r="O5">
-        <v>2.103300093066508</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.46488652941359</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>2.022410088434725</v>
+      </c>
+      <c r="R5">
+        <v>1.323760974352325</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2892045919556523</v>
+        <v>0.3583903418768699</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09195033631558402</v>
+        <v>0.08413326929055387</v>
       </c>
       <c r="E6">
-        <v>0.08332240489368647</v>
+        <v>0.07716876532353645</v>
       </c>
       <c r="F6">
-        <v>2.217742083625311</v>
+        <v>2.25205637888098</v>
       </c>
       <c r="G6">
-        <v>2.278854709781797</v>
+        <v>2.279076855821359</v>
       </c>
       <c r="H6">
-        <v>0.003391574099408157</v>
+        <v>0.002594260694560591</v>
       </c>
       <c r="I6">
-        <v>0.008124238734557032</v>
+        <v>0.004712754093300298</v>
       </c>
       <c r="J6">
-        <v>1.239565687429604</v>
+        <v>1.325604012899618</v>
       </c>
       <c r="K6">
-        <v>0.3127605597589778</v>
+        <v>0.2592139824135931</v>
       </c>
       <c r="L6">
-        <v>0.1089949361976166</v>
+        <v>0.1061136684613606</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0975807804701283</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.103546860884546</v>
       </c>
       <c r="O6">
-        <v>2.090231138323489</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.463778504733313</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>2.009472746427122</v>
+      </c>
+      <c r="R6">
+        <v>1.32247344587978</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3029270688977022</v>
+        <v>0.3738127013397872</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09492216377586971</v>
+        <v>0.08645709017929448</v>
       </c>
       <c r="E7">
-        <v>0.08567998701936652</v>
+        <v>0.07915451121274764</v>
       </c>
       <c r="F7">
-        <v>2.307964133274268</v>
+        <v>2.336809412525938</v>
       </c>
       <c r="G7">
-        <v>2.382822193994684</v>
+        <v>2.38832467986893</v>
       </c>
       <c r="H7">
-        <v>0.004447680237991469</v>
+        <v>0.003467650737818184</v>
       </c>
       <c r="I7">
-        <v>0.007895645276694729</v>
+        <v>0.004608678341188721</v>
       </c>
       <c r="J7">
-        <v>1.287506473682527</v>
+        <v>1.358814053680419</v>
       </c>
       <c r="K7">
-        <v>0.313433952754437</v>
+        <v>0.2595739369904635</v>
       </c>
       <c r="L7">
-        <v>0.1121218630955488</v>
+        <v>0.1064189875016837</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09660606521688919</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1063309004980049</v>
       </c>
       <c r="O7">
-        <v>2.194472362752407</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.491171483280866</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.108039829934938</v>
+      </c>
+      <c r="R7">
+        <v>1.348112334801314</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3656861282802595</v>
+        <v>0.4432833969416237</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1082140867060133</v>
+        <v>0.09731472208853376</v>
       </c>
       <c r="E8">
-        <v>0.09623682336704942</v>
+        <v>0.08812606729709138</v>
       </c>
       <c r="F8">
-        <v>2.713980001550112</v>
+        <v>2.728765029819129</v>
       </c>
       <c r="G8">
-        <v>2.850207258895836</v>
+        <v>2.868345277621728</v>
       </c>
       <c r="H8">
-        <v>0.01062201665420266</v>
+        <v>0.008706860344174255</v>
       </c>
       <c r="I8">
-        <v>0.006770647297367205</v>
+        <v>0.00397351835305404</v>
       </c>
       <c r="J8">
-        <v>1.503584432251927</v>
+        <v>1.540887584616627</v>
       </c>
       <c r="K8">
-        <v>0.3159094307649752</v>
+        <v>0.2610678184382316</v>
       </c>
       <c r="L8">
-        <v>0.1261689954124258</v>
+        <v>0.1091099085923428</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0920165446211243</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1188722817382337</v>
       </c>
       <c r="O8">
-        <v>2.652879038957494</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.608847329887169</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.548503066241366</v>
+      </c>
+      <c r="R8">
+        <v>1.458465850381657</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.490706469591629</v>
+        <v>0.5790958802161299</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1354361417308709</v>
+        <v>0.1202410112665007</v>
       </c>
       <c r="E9">
-        <v>0.1179416345830235</v>
+        <v>0.1066135496409615</v>
       </c>
       <c r="F9">
-        <v>3.544044712251093</v>
+        <v>3.545774810088716</v>
       </c>
       <c r="G9">
-        <v>3.804740798409114</v>
+        <v>3.829022310646764</v>
       </c>
       <c r="H9">
-        <v>0.0294096548910936</v>
+        <v>0.02505893435725937</v>
       </c>
       <c r="I9">
-        <v>0.004759383203160716</v>
+        <v>0.002766886509370181</v>
       </c>
       <c r="J9">
-        <v>1.946855919676835</v>
+        <v>1.965352210342701</v>
       </c>
       <c r="K9">
-        <v>0.3217034785354613</v>
+        <v>0.2655492956038046</v>
       </c>
       <c r="L9">
-        <v>0.1551121737562726</v>
+        <v>0.119094433875512</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08345927858706759</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.144640690925236</v>
       </c>
       <c r="O9">
-        <v>3.556845178189775</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.838502356572633</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.429361911674206</v>
+      </c>
+      <c r="R9">
+        <v>1.675234723314446</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5790782978003506</v>
+        <v>0.6759048910364811</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1579758209041486</v>
+        <v>0.1378414174931422</v>
       </c>
       <c r="E10">
-        <v>0.135653632571155</v>
+        <v>0.1213268193195027</v>
       </c>
       <c r="F10">
-        <v>4.129990532193887</v>
+        <v>4.085026781757108</v>
       </c>
       <c r="G10">
-        <v>4.488641112296193</v>
+        <v>4.549652181736747</v>
       </c>
       <c r="H10">
-        <v>0.04786003813298567</v>
+        <v>0.04100590674209048</v>
       </c>
       <c r="I10">
-        <v>0.003864919718705728</v>
+        <v>0.002412383747373958</v>
       </c>
       <c r="J10">
-        <v>2.264314698222904</v>
+        <v>2.166806291027882</v>
       </c>
       <c r="K10">
-        <v>0.3309651319240636</v>
+        <v>0.2734999753930154</v>
       </c>
       <c r="L10">
-        <v>0.1764466503456021</v>
+        <v>0.1304703724064495</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07899133528838576</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1630171645401775</v>
       </c>
       <c r="O10">
-        <v>4.186818422206414</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2.027840511756636</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>4.021850565663854</v>
+      </c>
+      <c r="R10">
+        <v>1.857557765023643</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6237866490631916</v>
+        <v>0.7320442697459271</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1807748537532134</v>
+        <v>0.1553211775650283</v>
       </c>
       <c r="E11">
-        <v>0.1551178575063368</v>
+        <v>0.1375955741334014</v>
       </c>
       <c r="F11">
-        <v>3.962865813991982</v>
+        <v>3.848637172956046</v>
       </c>
       <c r="G11">
-        <v>4.385982078602353</v>
+        <v>4.518145550135216</v>
       </c>
       <c r="H11">
-        <v>0.06841709179164823</v>
+        <v>0.06069851949760974</v>
       </c>
       <c r="I11">
-        <v>0.004122164725870903</v>
+        <v>0.002920577301547489</v>
       </c>
       <c r="J11">
-        <v>2.205316772373294</v>
+        <v>1.910322873167445</v>
       </c>
       <c r="K11">
-        <v>0.3531600626432798</v>
+        <v>0.2906640691753068</v>
       </c>
       <c r="L11">
-        <v>0.186548209253008</v>
+        <v>0.1413795308406591</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08178254375657446</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1699205286759096</v>
       </c>
       <c r="O11">
-        <v>4.066336300139</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>2.221455205378732</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>3.855896792886071</v>
+      </c>
+      <c r="R11">
+        <v>2.038697852378817</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6493830650027235</v>
+        <v>0.7651958089699917</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1965991182256488</v>
+        <v>0.1681631840523536</v>
       </c>
       <c r="E12">
-        <v>0.174942344222611</v>
+        <v>0.1549971177098115</v>
       </c>
       <c r="F12">
-        <v>3.701478934476768</v>
+        <v>3.562028717769635</v>
       </c>
       <c r="G12">
-        <v>4.155764971212136</v>
+        <v>4.318480404858292</v>
       </c>
       <c r="H12">
-        <v>0.1055250423290843</v>
+        <v>0.09774564036879241</v>
       </c>
       <c r="I12">
-        <v>0.004048300278603811</v>
+        <v>0.002881021855298371</v>
       </c>
       <c r="J12">
-        <v>2.088559061821627</v>
+        <v>1.71749897492208</v>
       </c>
       <c r="K12">
-        <v>0.3677357020004095</v>
+        <v>0.3014938626549615</v>
       </c>
       <c r="L12">
-        <v>0.2064094109786225</v>
+        <v>0.147356560147859</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08428161446388316</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1873440388463621</v>
       </c>
       <c r="O12">
-        <v>3.826382423110815</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2.338357714688414</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>3.600408401504268</v>
+      </c>
+      <c r="R12">
+        <v>2.145309303849899</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6559761211146338</v>
+        <v>0.7765761709527794</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2076677230600694</v>
+        <v>0.1791889084928968</v>
       </c>
       <c r="E13">
-        <v>0.1957374123856717</v>
+        <v>0.1747339998309272</v>
       </c>
       <c r="F13">
-        <v>3.352683842527568</v>
+        <v>3.231002742450869</v>
       </c>
       <c r="G13">
-        <v>3.813986785400402</v>
+        <v>3.965807198011504</v>
       </c>
       <c r="H13">
-        <v>0.1568835833865876</v>
+        <v>0.1497410162774742</v>
       </c>
       <c r="I13">
-        <v>0.004116929302711014</v>
+        <v>0.002886482070671548</v>
       </c>
       <c r="J13">
-        <v>1.920462578602269</v>
+        <v>1.588297165548738</v>
       </c>
       <c r="K13">
-        <v>0.3796813423628365</v>
+        <v>0.3094489347657046</v>
       </c>
       <c r="L13">
-        <v>0.2342887653477277</v>
+        <v>0.1500210254780256</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08742522482293325</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2137614079211403</v>
       </c>
       <c r="O13">
-        <v>3.490269320489546</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>2.411511531527651</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>3.276584575078985</v>
+      </c>
+      <c r="R13">
+        <v>2.205408740603417</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6508224821870385</v>
+        <v>0.773553591526138</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2133638626812342</v>
+        <v>0.1864242865231063</v>
       </c>
       <c r="E14">
-        <v>0.2114875137124166</v>
+        <v>0.1906399411215283</v>
       </c>
       <c r="F14">
-        <v>3.072690304437998</v>
+        <v>2.979919246850926</v>
       </c>
       <c r="G14">
-        <v>3.52775554989816</v>
+        <v>3.655359992798338</v>
       </c>
       <c r="H14">
-        <v>0.2021470642255991</v>
+        <v>0.1957097381663715</v>
       </c>
       <c r="I14">
-        <v>0.004318693978230037</v>
+        <v>0.003013107020420236</v>
       </c>
       <c r="J14">
-        <v>1.781193640007018</v>
+        <v>1.521414008794778</v>
       </c>
       <c r="K14">
-        <v>0.3874566332130698</v>
+        <v>0.3141260210110666</v>
       </c>
       <c r="L14">
-        <v>0.2592518672274338</v>
+        <v>0.1504806732114119</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.09013373571279359</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2382732203759019</v>
       </c>
       <c r="O14">
-        <v>3.216091714277695</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>2.444927828742578</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>3.021853305701455</v>
+      </c>
+      <c r="R14">
+        <v>2.227994172610664</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6438618684062192</v>
+        <v>0.7665284940857759</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2135363312440717</v>
+        <v>0.1876776004988585</v>
       </c>
       <c r="E15">
-        <v>0.2145661127316529</v>
+        <v>0.1941846948080546</v>
       </c>
       <c r="F15">
-        <v>2.986017419371933</v>
+        <v>2.907278533070183</v>
       </c>
       <c r="G15">
-        <v>3.434731463816917</v>
+        <v>3.549571507043424</v>
       </c>
       <c r="H15">
-        <v>0.2129830400224506</v>
+        <v>0.2068518285128391</v>
       </c>
       <c r="I15">
-        <v>0.004525824700380099</v>
+        <v>0.003200182671879048</v>
       </c>
       <c r="J15">
-        <v>1.736591384986184</v>
+        <v>1.513700509049499</v>
       </c>
       <c r="K15">
-        <v>0.3895293695543174</v>
+        <v>0.3152165770453017</v>
       </c>
       <c r="L15">
-        <v>0.2649462058896574</v>
+        <v>0.1500765324289297</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.09117028814207373</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2441614848918192</v>
       </c>
       <c r="O15">
-        <v>3.130849493373532</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>2.446009655202658</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>2.945782994853602</v>
+      </c>
+      <c r="R15">
+        <v>2.225574115138357</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6020245106358004</v>
+        <v>0.718895248873423</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2007546294473883</v>
+        <v>0.1807000990751249</v>
       </c>
       <c r="E16">
-        <v>0.201740613265887</v>
+        <v>0.184891500822804</v>
       </c>
       <c r="F16">
-        <v>2.813608675764755</v>
+        <v>2.793960582364207</v>
       </c>
       <c r="G16">
-        <v>3.217619508526639</v>
+        <v>3.275061332423036</v>
       </c>
       <c r="H16">
-        <v>0.193213663269546</v>
+        <v>0.1883444339928815</v>
       </c>
       <c r="I16">
-        <v>0.0050376894227675</v>
+        <v>0.003524460438833366</v>
       </c>
       <c r="J16">
-        <v>1.637668712434987</v>
+        <v>1.578922244804914</v>
       </c>
       <c r="K16">
-        <v>0.3832207203923659</v>
+        <v>0.3090498472224077</v>
       </c>
       <c r="L16">
-        <v>0.2491539633840176</v>
+        <v>0.1431683756314683</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.09261676862598733</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2311092640901933</v>
       </c>
       <c r="O16">
-        <v>2.942266798955373</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>2.34904370866181</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>2.796322763986026</v>
+      </c>
+      <c r="R16">
+        <v>2.126751158228188</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5725859975473782</v>
+        <v>0.6840877082069596</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1879879045684589</v>
+        <v>0.1706319256849511</v>
       </c>
       <c r="E17">
-        <v>0.183136880703632</v>
+        <v>0.1682454397820585</v>
       </c>
       <c r="F17">
-        <v>2.828089380692035</v>
+        <v>2.832716125350316</v>
       </c>
       <c r="G17">
-        <v>3.201593776768419</v>
+        <v>3.234454253430442</v>
       </c>
       <c r="H17">
-        <v>0.1522280160045142</v>
+        <v>0.1478963389473762</v>
       </c>
       <c r="I17">
-        <v>0.005350512177171751</v>
+        <v>0.00373445756652746</v>
       </c>
       <c r="J17">
-        <v>1.635099091092457</v>
+        <v>1.647065321363385</v>
       </c>
       <c r="K17">
-        <v>0.3744607289735598</v>
+        <v>0.3022496632655489</v>
       </c>
       <c r="L17">
-        <v>0.2226364288111569</v>
+        <v>0.1379994224277468</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09232427663419784</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2065482633406788</v>
       </c>
       <c r="O17">
-        <v>2.941140951509922</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>2.257863603872579</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>2.81126718778502</v>
+      </c>
+      <c r="R17">
+        <v>2.041326277127496</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5538936243248997</v>
+        <v>0.6595325161597145</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1742632458221749</v>
+        <v>0.1580405008539358</v>
       </c>
       <c r="E18">
-        <v>0.1606029974430712</v>
+        <v>0.14690886604388</v>
       </c>
       <c r="F18">
-        <v>3.007603561401794</v>
+        <v>3.021275872918523</v>
       </c>
       <c r="G18">
-        <v>3.357850006078621</v>
+        <v>3.379351946545512</v>
       </c>
       <c r="H18">
-        <v>0.09919181453569337</v>
+        <v>0.09494806101199771</v>
       </c>
       <c r="I18">
-        <v>0.005206953337206777</v>
+        <v>0.003508174208378456</v>
       </c>
       <c r="J18">
-        <v>1.715525995128502</v>
+        <v>1.757443698192844</v>
       </c>
       <c r="K18">
-        <v>0.3610315615099218</v>
+        <v>0.292715822328919</v>
       </c>
       <c r="L18">
-        <v>0.1910726036547885</v>
+        <v>0.1331378558883962</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08991750514048391</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1766777981298553</v>
       </c>
       <c r="O18">
-        <v>3.100068507720636</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2.156304171287047</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>2.975916247710089</v>
+      </c>
+      <c r="R18">
+        <v>1.95171974236294</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5384093506597196</v>
+        <v>0.6383306062173801</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1616610903197824</v>
+        <v>0.1456108595002732</v>
       </c>
       <c r="E19">
-        <v>0.14143350538051</v>
+        <v>0.128395194044975</v>
       </c>
       <c r="F19">
-        <v>3.311973886637332</v>
+        <v>3.326174805491519</v>
       </c>
       <c r="G19">
-        <v>3.644915988072654</v>
+        <v>3.66210590825915</v>
       </c>
       <c r="H19">
-        <v>0.05676495589065667</v>
+        <v>0.05222384293823268</v>
       </c>
       <c r="I19">
-        <v>0.005294915226278007</v>
+        <v>0.003637082763484401</v>
       </c>
       <c r="J19">
-        <v>1.858313109525795</v>
+        <v>1.907849286062032</v>
       </c>
       <c r="K19">
-        <v>0.3490390057515995</v>
+        <v>0.2846340696092931</v>
       </c>
       <c r="L19">
-        <v>0.1687090398232272</v>
+        <v>0.1298444913610872</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08716070118077113</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1556473550405464</v>
       </c>
       <c r="O19">
-        <v>3.390142410725346</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>2.069373450925468</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>3.264944605524192</v>
+      </c>
+      <c r="R19">
+        <v>1.877489951552207</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.544918764433362</v>
+        <v>0.6394075323939319</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1520608398199386</v>
+        <v>0.1341297797409169</v>
       </c>
       <c r="E20">
-        <v>0.130890830765491</v>
+        <v>0.1175627516767541</v>
       </c>
       <c r="F20">
-        <v>3.967812238671883</v>
+        <v>3.956466409733224</v>
       </c>
       <c r="G20">
-        <v>4.300771765270582</v>
+        <v>4.332984835729633</v>
       </c>
       <c r="H20">
-        <v>0.04256730820507748</v>
+        <v>0.03656348870050596</v>
       </c>
       <c r="I20">
-        <v>0.004942751312235316</v>
+        <v>0.003488511545863382</v>
       </c>
       <c r="J20">
-        <v>2.176816117678641</v>
+        <v>2.168945402928074</v>
       </c>
       <c r="K20">
-        <v>0.333953986190906</v>
+        <v>0.2751091044613574</v>
       </c>
       <c r="L20">
-        <v>0.170399042457789</v>
+        <v>0.1286330242144622</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08160112610428882</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1579161938178242</v>
       </c>
       <c r="O20">
-        <v>4.03192989520943</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.998760365145557</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.887617525221685</v>
+      </c>
+      <c r="R20">
+        <v>1.824693496728429</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.612221701946055</v>
+        <v>0.7144178906346212</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1679830896460572</v>
+        <v>0.1417016464768679</v>
       </c>
       <c r="E21">
-        <v>0.1440049459354427</v>
+        <v>0.1275347114951124</v>
       </c>
       <c r="F21">
-        <v>4.508175251039916</v>
+        <v>4.347897481525592</v>
       </c>
       <c r="G21">
-        <v>4.91449746528798</v>
+        <v>5.080068588330676</v>
       </c>
       <c r="H21">
-        <v>0.06006027435102901</v>
+        <v>0.05089034780780377</v>
       </c>
       <c r="I21">
-        <v>0.004188723857370569</v>
+        <v>0.003121140275612611</v>
       </c>
       <c r="J21">
-        <v>2.464161567596022</v>
+        <v>2.060888409454861</v>
       </c>
       <c r="K21">
-        <v>0.3383870359121914</v>
+        <v>0.2811459678654877</v>
       </c>
       <c r="L21">
-        <v>0.1895733165600011</v>
+        <v>0.1382743186464275</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.077965730305948</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1742706333344404</v>
       </c>
       <c r="O21">
-        <v>4.591906544585953</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>2.125983262034993</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.352303376712584</v>
+      </c>
+      <c r="R21">
+        <v>1.962254334115443</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6608762205637504</v>
+        <v>0.7683999082140645</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1794414575023993</v>
+        <v>0.1474519048757514</v>
       </c>
       <c r="E22">
-        <v>0.1533303922522276</v>
+        <v>0.1347462609780026</v>
       </c>
       <c r="F22">
-        <v>4.84545421334127</v>
+        <v>4.575689452939827</v>
       </c>
       <c r="G22">
-        <v>5.302119264160751</v>
+        <v>5.566942798295827</v>
       </c>
       <c r="H22">
-        <v>0.0725818991453373</v>
+        <v>0.06102287733088918</v>
       </c>
       <c r="I22">
-        <v>0.003446124852322541</v>
+        <v>0.002550515316841029</v>
       </c>
       <c r="J22">
-        <v>2.645346744968322</v>
+        <v>1.965229199124991</v>
       </c>
       <c r="K22">
-        <v>0.3402802555575128</v>
+        <v>0.2845369710354397</v>
       </c>
       <c r="L22">
-        <v>0.2020764802963919</v>
+        <v>0.1447714439498782</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07540857679143897</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1847838704334936</v>
       </c>
       <c r="O22">
-        <v>4.931586087808228</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>2.207223580639123</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.623471238927863</v>
+      </c>
+      <c r="R22">
+        <v>2.052156623630509</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.639203686875419</v>
+        <v>0.7434045281299291</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1732541611362919</v>
+        <v>0.1448794675723803</v>
       </c>
       <c r="E23">
-        <v>0.148326644432081</v>
+        <v>0.1309634767271985</v>
       </c>
       <c r="F23">
-        <v>4.666189495048229</v>
+        <v>4.470358225829017</v>
       </c>
       <c r="G23">
-        <v>5.095738690090343</v>
+        <v>5.292092477277379</v>
       </c>
       <c r="H23">
-        <v>0.06574504341828025</v>
+        <v>0.05560666419409532</v>
       </c>
       <c r="I23">
-        <v>0.003501935988824201</v>
+        <v>0.002459660487414084</v>
       </c>
       <c r="J23">
-        <v>2.54891081218841</v>
+        <v>2.056141623198442</v>
       </c>
       <c r="K23">
-        <v>0.3371019225374177</v>
+        <v>0.2808508319218639</v>
       </c>
       <c r="L23">
-        <v>0.1954531800195287</v>
+        <v>0.1405249975084502</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07611909575091858</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1792844149424506</v>
       </c>
       <c r="O23">
-        <v>4.744849952009957</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>2.15582792159185</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.48325416863392</v>
+      </c>
+      <c r="R23">
+        <v>1.995534379349124</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5493495776334214</v>
+        <v>0.6430220268636901</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.150768833123756</v>
+        <v>0.1329188164600694</v>
       </c>
       <c r="E24">
-        <v>0.1301814315580012</v>
+        <v>0.1169339750434206</v>
       </c>
       <c r="F24">
-        <v>4.001467369522857</v>
+        <v>3.990671822495926</v>
       </c>
       <c r="G24">
-        <v>4.331239355222095</v>
+        <v>4.361956914737789</v>
       </c>
       <c r="H24">
-        <v>0.04288553494344027</v>
+        <v>0.03684852912778736</v>
       </c>
       <c r="I24">
-        <v>0.004402762823142226</v>
+        <v>0.002860652608775993</v>
       </c>
       <c r="J24">
-        <v>2.192044844336067</v>
+        <v>2.187129258494991</v>
       </c>
       <c r="K24">
-        <v>0.3294080765654037</v>
+        <v>0.2717922426717472</v>
       </c>
       <c r="L24">
-        <v>0.1712921718437825</v>
+        <v>0.1273339880973516</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08042118616186045</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1589175824706692</v>
       </c>
       <c r="O24">
-        <v>4.053023329825137</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.976359215848987</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.910090736568662</v>
+      </c>
+      <c r="R24">
+        <v>1.80543342102348</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4509144684536608</v>
+        <v>0.5364934668743047</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1279341104721823</v>
+        <v>0.1142945852890023</v>
       </c>
       <c r="E25">
-        <v>0.1118976613350888</v>
+        <v>0.1015517048163392</v>
       </c>
       <c r="F25">
-        <v>3.312906580507047</v>
+        <v>3.327126518094417</v>
       </c>
       <c r="G25">
-        <v>3.539495739561261</v>
+        <v>3.554649161243987</v>
       </c>
       <c r="H25">
-        <v>0.02348893707558131</v>
+        <v>0.01992433892100665</v>
       </c>
       <c r="I25">
-        <v>0.005715725263973681</v>
+        <v>0.003584947443794562</v>
       </c>
       <c r="J25">
-        <v>1.823387558600928</v>
+        <v>1.871437851083982</v>
       </c>
       <c r="K25">
-        <v>0.3228084601677033</v>
+        <v>0.2660524082785436</v>
       </c>
       <c r="L25">
-        <v>0.1469345643601923</v>
+        <v>0.1164759137394569</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08654026820371286</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1374272853762846</v>
       </c>
       <c r="O25">
-        <v>3.31827910708833</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.786952892719938</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>3.201049001922769</v>
+      </c>
+      <c r="R25">
+        <v>1.62423140918898</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
